--- a/outcome/appendix/forecast/Hepatitis A.xlsx
+++ b/outcome/appendix/forecast/Hepatitis A.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>1195.28238206247</v>
+        <v>1194.2081121999</v>
       </c>
       <c r="C2" t="n">
-        <v>538.780259804592</v>
+        <v>537.664734040744</v>
       </c>
       <c r="D2" t="n">
-        <v>538.780259804592</v>
+        <v>537.664734040744</v>
       </c>
       <c r="E2" t="n">
-        <v>1917.17225465559</v>
+        <v>1916.14334979079</v>
       </c>
       <c r="F2" t="n">
-        <v>1917.17225465559</v>
+        <v>1916.14334979079</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>1251</v>
       </c>
       <c r="I2" t="n">
-        <v>-55.7176179375263</v>
+        <v>-56.7918878000992</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>902.610829053705</v>
+        <v>901.014704012086</v>
       </c>
       <c r="C3" t="n">
-        <v>200.342678623557</v>
+        <v>198.702703095796</v>
       </c>
       <c r="D3" t="n">
-        <v>200.342678623557</v>
+        <v>198.702703095796</v>
       </c>
       <c r="E3" t="n">
-        <v>1555.863857163</v>
+        <v>1554.30940755209</v>
       </c>
       <c r="F3" t="n">
-        <v>1555.863857163</v>
+        <v>1554.30940755209</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>1295</v>
       </c>
       <c r="I3" t="n">
-        <v>-392.389170946295</v>
+        <v>-393.985295987914</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>1599.7447279519</v>
+        <v>1598.26324488365</v>
       </c>
       <c r="C4" t="n">
-        <v>916.435274642346</v>
+        <v>914.910851046734</v>
       </c>
       <c r="D4" t="n">
-        <v>916.435274642346</v>
+        <v>914.910851046734</v>
       </c>
       <c r="E4" t="n">
-        <v>2286.73032211745</v>
+        <v>2285.29201059258</v>
       </c>
       <c r="F4" t="n">
-        <v>2286.73032211745</v>
+        <v>2285.29201059258</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>1529</v>
       </c>
       <c r="I4" t="n">
-        <v>70.7447279519015</v>
+        <v>69.2632448836544</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>1483.6424146165</v>
+        <v>1482.29958253373</v>
       </c>
       <c r="C5" t="n">
-        <v>819.19963782385</v>
+        <v>817.81505083326</v>
       </c>
       <c r="D5" t="n">
-        <v>819.19963782385</v>
+        <v>817.81505083326</v>
       </c>
       <c r="E5" t="n">
-        <v>2171.47990207051</v>
+        <v>2170.18035020982</v>
       </c>
       <c r="F5" t="n">
-        <v>2171.47990207051</v>
+        <v>2170.18035020982</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>1187</v>
       </c>
       <c r="I5" t="n">
-        <v>296.642414616497</v>
+        <v>295.299582533733</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>1490.13004215888</v>
+        <v>1488.63759776225</v>
       </c>
       <c r="C6" t="n">
-        <v>809.797910234587</v>
+        <v>808.263161432534</v>
       </c>
       <c r="D6" t="n">
-        <v>809.797910234587</v>
+        <v>808.263161432534</v>
       </c>
       <c r="E6" t="n">
-        <v>2221.57176350169</v>
+        <v>2220.12631922139</v>
       </c>
       <c r="F6" t="n">
-        <v>2221.57176350169</v>
+        <v>2220.12631922139</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>1100</v>
       </c>
       <c r="I6" t="n">
-        <v>390.130042158876</v>
+        <v>388.637597762253</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>1398.57379464482</v>
+        <v>1397.36757412023</v>
       </c>
       <c r="C7" t="n">
-        <v>726.790563681254</v>
+        <v>725.544557040924</v>
       </c>
       <c r="D7" t="n">
-        <v>726.790563681254</v>
+        <v>725.544557040924</v>
       </c>
       <c r="E7" t="n">
-        <v>2076.95956813671</v>
+        <v>2075.80184582888</v>
       </c>
       <c r="F7" t="n">
-        <v>2076.95956813671</v>
+        <v>2075.80184582888</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>1249</v>
       </c>
       <c r="I7" t="n">
-        <v>149.573794644822</v>
+        <v>148.367574120229</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>1543.07537711591</v>
+        <v>1541.73980957755</v>
       </c>
       <c r="C8" t="n">
-        <v>897.30788376085</v>
+        <v>895.931734906683</v>
       </c>
       <c r="D8" t="n">
-        <v>897.30788376085</v>
+        <v>895.931734906683</v>
       </c>
       <c r="E8" t="n">
-        <v>2232.95785854473</v>
+        <v>2231.66552949717</v>
       </c>
       <c r="F8" t="n">
-        <v>2232.95785854473</v>
+        <v>2231.66552949717</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>1401</v>
       </c>
       <c r="I8" t="n">
-        <v>142.075377115906</v>
+        <v>140.739809577546</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>1683.62535564002</v>
+        <v>1682.04474918315</v>
       </c>
       <c r="C9" t="n">
-        <v>1005.51821007496</v>
+        <v>1003.8964784256</v>
       </c>
       <c r="D9" t="n">
-        <v>1005.51821007496</v>
+        <v>1003.8964784256</v>
       </c>
       <c r="E9" t="n">
-        <v>2326.44862421777</v>
+        <v>2324.90507933674</v>
       </c>
       <c r="F9" t="n">
-        <v>2326.44862421777</v>
+        <v>2324.90507933674</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>1401</v>
       </c>
       <c r="I9" t="n">
-        <v>282.625355640025</v>
+        <v>281.044749183148</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>1586.23205246975</v>
+        <v>1584.77641344869</v>
       </c>
       <c r="C10" t="n">
-        <v>827.186893732313</v>
+        <v>825.67387969078</v>
       </c>
       <c r="D10" t="n">
-        <v>827.186893732313</v>
+        <v>825.67387969078</v>
       </c>
       <c r="E10" t="n">
-        <v>2273.32873221582</v>
+        <v>2271.90619236218</v>
       </c>
       <c r="F10" t="n">
-        <v>2273.32873221582</v>
+        <v>2271.90619236218</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>1335</v>
       </c>
       <c r="I10" t="n">
-        <v>251.232052469748</v>
+        <v>249.776413448694</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>1352.74354701107</v>
+        <v>1351.44006371106</v>
       </c>
       <c r="C11" t="n">
-        <v>666.660078999609</v>
+        <v>665.31999683199</v>
       </c>
       <c r="D11" t="n">
-        <v>666.660078999609</v>
+        <v>665.31999683199</v>
       </c>
       <c r="E11" t="n">
-        <v>2037.85541686261</v>
+        <v>2036.5971365835</v>
       </c>
       <c r="F11" t="n">
-        <v>2037.85541686261</v>
+        <v>2036.5971365835</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>1181</v>
       </c>
       <c r="I11" t="n">
-        <v>171.74354701107</v>
+        <v>170.440063711063</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>1343.3585681213</v>
+        <v>1341.58140701611</v>
       </c>
       <c r="C12" t="n">
-        <v>658.325591467614</v>
+        <v>656.509318530548</v>
       </c>
       <c r="D12" t="n">
-        <v>658.325591467614</v>
+        <v>656.509318530548</v>
       </c>
       <c r="E12" t="n">
-        <v>2047.35142551131</v>
+        <v>2045.60677344489</v>
       </c>
       <c r="F12" t="n">
-        <v>2047.35142551131</v>
+        <v>2045.60677344489</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>1243</v>
       </c>
       <c r="I12" t="n">
-        <v>100.358568121303</v>
+        <v>98.5814070161123</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>1347.14369268813</v>
+        <v>1344.99170181718</v>
       </c>
       <c r="C13" t="n">
-        <v>633.03099984013</v>
+        <v>630.907784665871</v>
       </c>
       <c r="D13" t="n">
-        <v>633.03099984013</v>
+        <v>630.907784665871</v>
       </c>
       <c r="E13" t="n">
-        <v>2014.94514115895</v>
+        <v>2012.82464631917</v>
       </c>
       <c r="F13" t="n">
-        <v>2014.94514115895</v>
+        <v>2012.82464631917</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>1196</v>
       </c>
       <c r="I13" t="n">
-        <v>151.143692688131</v>
+        <v>148.991701817177</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>824.094812602719</v>
+        <v>822.548727626082</v>
       </c>
       <c r="C14" t="n">
-        <v>147.537187230837</v>
+        <v>145.951764040075</v>
       </c>
       <c r="D14" t="n">
-        <v>147.537187230837</v>
+        <v>145.951764040075</v>
       </c>
       <c r="E14" t="n">
-        <v>1514.31797299871</v>
+        <v>1512.77083507119</v>
       </c>
       <c r="F14" t="n">
-        <v>1514.31797299871</v>
+        <v>1512.77083507119</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>960</v>
       </c>
       <c r="I14" t="n">
-        <v>-135.905187397281</v>
+        <v>-137.451272373918</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>792.981014881027</v>
+        <v>791.076995902518</v>
       </c>
       <c r="C15" t="n">
-        <v>103.092526748467</v>
+        <v>101.173852663913</v>
       </c>
       <c r="D15" t="n">
-        <v>103.092526748467</v>
+        <v>101.173852663913</v>
       </c>
       <c r="E15" t="n">
-        <v>1490.8332529451</v>
+        <v>1488.97025891488</v>
       </c>
       <c r="F15" t="n">
-        <v>1490.8332529451</v>
+        <v>1488.97025891488</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>745</v>
       </c>
       <c r="I15" t="n">
-        <v>47.9810148810267</v>
+        <v>46.076995902518</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>1467.67586219949</v>
+        <v>1465.83146947386</v>
       </c>
       <c r="C16" t="n">
-        <v>769.434138296694</v>
+        <v>767.561189995367</v>
       </c>
       <c r="D16" t="n">
-        <v>769.434138296694</v>
+        <v>767.561189995367</v>
       </c>
       <c r="E16" t="n">
-        <v>2114.60924950449</v>
+        <v>2112.82088879259</v>
       </c>
       <c r="F16" t="n">
-        <v>2114.60924950449</v>
+        <v>2112.82088879259</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>1128</v>
       </c>
       <c r="I16" t="n">
-        <v>339.675862199488</v>
+        <v>337.831469473859</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>1366.41160339774</v>
+        <v>1364.70396828468</v>
       </c>
       <c r="C17" t="n">
-        <v>674.665523302484</v>
+        <v>672.893808473196</v>
       </c>
       <c r="D17" t="n">
-        <v>674.665523302484</v>
+        <v>672.893808473196</v>
       </c>
       <c r="E17" t="n">
-        <v>2011.85993333155</v>
+        <v>2010.20442528659</v>
       </c>
       <c r="F17" t="n">
-        <v>2011.85993333155</v>
+        <v>2010.20442528659</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>1142</v>
       </c>
       <c r="I17" t="n">
-        <v>224.41160339774</v>
+        <v>222.703968284679</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>1360.88408765685</v>
+        <v>1359.01921024167</v>
       </c>
       <c r="C18" t="n">
-        <v>665.073178373294</v>
+        <v>663.157771641434</v>
       </c>
       <c r="D18" t="n">
-        <v>665.073178373294</v>
+        <v>663.157771641434</v>
       </c>
       <c r="E18" t="n">
-        <v>2052.22132542908</v>
+        <v>2050.40172159327</v>
       </c>
       <c r="F18" t="n">
-        <v>2052.22132542908</v>
+        <v>2050.40172159327</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>1095</v>
       </c>
       <c r="I18" t="n">
-        <v>265.884087656854</v>
+        <v>264.01921024167</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>1320.9816598186</v>
+        <v>1319.42194534406</v>
       </c>
       <c r="C19" t="n">
-        <v>626.642321759379</v>
+        <v>625.102014853992</v>
       </c>
       <c r="D19" t="n">
-        <v>626.642321759379</v>
+        <v>625.102014853992</v>
       </c>
       <c r="E19" t="n">
-        <v>2013.85137972708</v>
+        <v>2012.28028138983</v>
       </c>
       <c r="F19" t="n">
-        <v>2013.85137972708</v>
+        <v>2012.28028138983</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>1089</v>
       </c>
       <c r="I19" t="n">
-        <v>231.981659818598</v>
+        <v>230.421945344055</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>1488.46978116976</v>
+        <v>1486.78928051869</v>
       </c>
       <c r="C20" t="n">
-        <v>866.012716959003</v>
+        <v>864.281827096959</v>
       </c>
       <c r="D20" t="n">
-        <v>866.012716959003</v>
+        <v>864.281827096959</v>
       </c>
       <c r="E20" t="n">
-        <v>2177.06297928668</v>
+        <v>2175.43512149227</v>
       </c>
       <c r="F20" t="n">
-        <v>2177.06297928668</v>
+        <v>2175.43512149227</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>1038</v>
       </c>
       <c r="I20" t="n">
-        <v>450.469781169764</v>
+        <v>448.789280518691</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>1581.36401042262</v>
+        <v>1579.41796549232</v>
       </c>
       <c r="C21" t="n">
-        <v>882.980604447233</v>
+        <v>880.991425008628</v>
       </c>
       <c r="D21" t="n">
-        <v>882.980604447233</v>
+        <v>880.991425008628</v>
       </c>
       <c r="E21" t="n">
-        <v>2265.91332971245</v>
+        <v>2264.01083577539</v>
       </c>
       <c r="F21" t="n">
-        <v>2265.91332971245</v>
+        <v>2264.01083577539</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>1057</v>
       </c>
       <c r="I21" t="n">
-        <v>524.364010422624</v>
+        <v>522.417965492316</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>1478.54448893763</v>
+        <v>1476.72378510263</v>
       </c>
       <c r="C22" t="n">
-        <v>758.953430340444</v>
+        <v>757.108966331084</v>
       </c>
       <c r="D22" t="n">
-        <v>758.953430340444</v>
+        <v>757.108966331084</v>
       </c>
       <c r="E22" t="n">
-        <v>2139.14305964497</v>
+        <v>2137.35797307964</v>
       </c>
       <c r="F22" t="n">
-        <v>2139.14305964497</v>
+        <v>2137.35797307964</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>1105</v>
       </c>
       <c r="I22" t="n">
-        <v>373.544488937632</v>
+        <v>371.723785102632</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>1233.52780963079</v>
+        <v>1231.85792427127</v>
       </c>
       <c r="C23" t="n">
-        <v>541.212124896923</v>
+        <v>539.492515593342</v>
       </c>
       <c r="D23" t="n">
-        <v>541.212124896923</v>
+        <v>539.492515593342</v>
       </c>
       <c r="E23" t="n">
-        <v>1958.56735566512</v>
+        <v>1956.95875432702</v>
       </c>
       <c r="F23" t="n">
-        <v>1958.56735566512</v>
+        <v>1956.95875432702</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>940</v>
       </c>
       <c r="I23" t="n">
-        <v>293.527809630793</v>
+        <v>291.857924271274</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>1226.20668675522</v>
+        <v>1224.0610188366</v>
       </c>
       <c r="C24" t="n">
-        <v>541.304600408953</v>
+        <v>539.137012297322</v>
       </c>
       <c r="D24" t="n">
-        <v>541.304600408953</v>
+        <v>539.137012297322</v>
       </c>
       <c r="E24" t="n">
-        <v>1883.60386257269</v>
+        <v>1881.47204357485</v>
       </c>
       <c r="F24" t="n">
-        <v>1883.60386257269</v>
+        <v>1881.47204357485</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>1026</v>
       </c>
       <c r="I24" t="n">
-        <v>200.206686755218</v>
+        <v>198.061018836601</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>1218.03740324184</v>
+        <v>1215.52075800621</v>
       </c>
       <c r="C25" t="n">
-        <v>528.490602440645</v>
+        <v>525.899487642701</v>
       </c>
       <c r="D25" t="n">
-        <v>528.490602440645</v>
+        <v>525.899487642701</v>
       </c>
       <c r="E25" t="n">
-        <v>1893.39383195001</v>
+        <v>1890.86993209321</v>
       </c>
       <c r="F25" t="n">
-        <v>1893.39383195001</v>
+        <v>1890.86993209321</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>1068</v>
       </c>
       <c r="I25" t="n">
-        <v>150.037403241843</v>
+        <v>147.520758006213</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>814.260791827353</v>
+        <v>812.390289595686</v>
       </c>
       <c r="C26" t="n">
-        <v>77.0764371788608</v>
+        <v>75.1658892882825</v>
       </c>
       <c r="D26" t="n">
-        <v>77.0764371788608</v>
+        <v>75.1658892882825</v>
       </c>
       <c r="E26" t="n">
-        <v>1493.63018369755</v>
+        <v>1491.77340008032</v>
       </c>
       <c r="F26" t="n">
-        <v>1493.63018369755</v>
+        <v>1491.77340008032</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>956</v>
       </c>
       <c r="I26" t="n">
-        <v>-141.739208172647</v>
+        <v>-143.609710404314</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>697.888332474037</v>
+        <v>695.605364523283</v>
       </c>
       <c r="C27" t="n">
-        <v>-27.9799193272258</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-27.9799193272258</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>1413.13176748025</v>
+        <v>1410.80982824297</v>
       </c>
       <c r="F27" t="n">
-        <v>1413.13176748025</v>
+        <v>1410.80982824297</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>830</v>
       </c>
       <c r="I27" t="n">
-        <v>-132.111667525963</v>
+        <v>-134.394635476717</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>1334.82275738057</v>
+        <v>1332.61551630871</v>
       </c>
       <c r="C28" t="n">
-        <v>653.411226135498</v>
+        <v>651.181890923707</v>
       </c>
       <c r="D28" t="n">
-        <v>653.411226135498</v>
+        <v>651.181890923707</v>
       </c>
       <c r="E28" t="n">
-        <v>1982.14683159391</v>
+        <v>1979.95321998049</v>
       </c>
       <c r="F28" t="n">
-        <v>1982.14683159391</v>
+        <v>1979.95321998049</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>1050</v>
       </c>
       <c r="I28" t="n">
-        <v>284.82275738057</v>
+        <v>282.615516308713</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>1249.26649138677</v>
+        <v>1247.19397937216</v>
       </c>
       <c r="C29" t="n">
-        <v>577.718190284752</v>
+        <v>575.548567489275</v>
       </c>
       <c r="D29" t="n">
-        <v>577.718190284752</v>
+        <v>575.548567489275</v>
       </c>
       <c r="E29" t="n">
-        <v>1960.02997467289</v>
+        <v>1957.96633303418</v>
       </c>
       <c r="F29" t="n">
-        <v>1960.02997467289</v>
+        <v>1957.96633303418</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>896</v>
       </c>
       <c r="I29" t="n">
-        <v>353.266491386773</v>
+        <v>351.193979372159</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>1232.65492917081</v>
+        <v>1230.41799035424</v>
       </c>
       <c r="C30" t="n">
-        <v>494.783953460623</v>
+        <v>492.488510026654</v>
       </c>
       <c r="D30" t="n">
-        <v>494.783953460623</v>
+        <v>492.488510026654</v>
       </c>
       <c r="E30" t="n">
-        <v>1992.54445810198</v>
+        <v>1990.31450234186</v>
       </c>
       <c r="F30" t="n">
-        <v>1992.54445810198</v>
+        <v>1990.31450234186</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>960</v>
       </c>
       <c r="I30" t="n">
-        <v>272.65492917081</v>
+        <v>270.41799035424</v>
       </c>
       <c r="J30" t="s">
         <v>12</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>1244.68480529429</v>
+        <v>1242.77191656059</v>
       </c>
       <c r="C31" t="n">
-        <v>468.273808850669</v>
+        <v>466.316195352846</v>
       </c>
       <c r="D31" t="n">
-        <v>468.273808850669</v>
+        <v>466.316195352846</v>
       </c>
       <c r="E31" t="n">
-        <v>1972.24572313515</v>
+        <v>1970.42933770133</v>
       </c>
       <c r="F31" t="n">
-        <v>1972.24572313515</v>
+        <v>1970.42933770133</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>1038</v>
       </c>
       <c r="I31" t="n">
-        <v>206.684805294293</v>
+        <v>204.771916560589</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>1433.48532390899</v>
+        <v>1431.45967806702</v>
       </c>
       <c r="C32" t="n">
-        <v>732.266749067911</v>
+        <v>730.122187080033</v>
       </c>
       <c r="D32" t="n">
-        <v>732.266749067911</v>
+        <v>730.122187080033</v>
       </c>
       <c r="E32" t="n">
-        <v>2135.95682584419</v>
+        <v>2133.97844829587</v>
       </c>
       <c r="F32" t="n">
-        <v>2135.95682584419</v>
+        <v>2133.97844829587</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>1069</v>
       </c>
       <c r="I32" t="n">
-        <v>364.485323908994</v>
+        <v>362.459678067021</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>1477.98719666334</v>
+        <v>1475.67541680769</v>
       </c>
       <c r="C33" t="n">
-        <v>773.642684746351</v>
+        <v>771.300193926645</v>
       </c>
       <c r="D33" t="n">
-        <v>773.642684746351</v>
+        <v>771.300193926645</v>
       </c>
       <c r="E33" t="n">
-        <v>2174.31717905741</v>
+        <v>2172.02022130365</v>
       </c>
       <c r="F33" t="n">
-        <v>2174.31717905741</v>
+        <v>2172.02022130365</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>1116</v>
       </c>
       <c r="I33" t="n">
-        <v>361.987196663338</v>
+        <v>359.675416807685</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>1370.14845660655</v>
+        <v>1367.96252638589</v>
       </c>
       <c r="C34" t="n">
-        <v>656.394778648254</v>
+        <v>654.202975631018</v>
       </c>
       <c r="D34" t="n">
-        <v>656.394778648254</v>
+        <v>654.202975631018</v>
       </c>
       <c r="E34" t="n">
-        <v>2097.7087794303</v>
+        <v>2095.4322022</v>
       </c>
       <c r="F34" t="n">
-        <v>2097.7087794303</v>
+        <v>2095.4322022</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>945</v>
       </c>
       <c r="I34" t="n">
-        <v>425.148456606548</v>
+        <v>422.962526385895</v>
       </c>
       <c r="J34" t="s">
         <v>12</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>1114.18732629572</v>
+        <v>1112.15088522603</v>
       </c>
       <c r="C35" t="n">
-        <v>360.821773259895</v>
+        <v>358.719611732168</v>
       </c>
       <c r="D35" t="n">
-        <v>360.821773259895</v>
+        <v>358.719611732168</v>
       </c>
       <c r="E35" t="n">
-        <v>1846.81998103043</v>
+        <v>1844.8558177484</v>
       </c>
       <c r="F35" t="n">
-        <v>1846.81998103043</v>
+        <v>1844.8558177484</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>752</v>
       </c>
       <c r="I35" t="n">
-        <v>362.18732629572</v>
+        <v>360.150885226025</v>
       </c>
       <c r="J35" t="s">
         <v>12</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>1109.38316624963</v>
+        <v>1106.86922473894</v>
       </c>
       <c r="C36" t="n">
-        <v>431.385184269252</v>
+        <v>428.854166691255</v>
       </c>
       <c r="D36" t="n">
-        <v>431.385184269252</v>
+        <v>428.854166691255</v>
       </c>
       <c r="E36" t="n">
-        <v>1851.52460229203</v>
+        <v>1849.0390264306</v>
       </c>
       <c r="F36" t="n">
-        <v>1851.52460229203</v>
+        <v>1849.0390264306</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>749</v>
       </c>
       <c r="I36" t="n">
-        <v>360.383166249626</v>
+        <v>357.869224738941</v>
       </c>
       <c r="J36" t="s">
         <v>12</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>1090.54291955517</v>
+        <v>1087.66240415102</v>
       </c>
       <c r="C37" t="n">
-        <v>360.287747780757</v>
+        <v>357.408808848844</v>
       </c>
       <c r="D37" t="n">
-        <v>360.287747780757</v>
+        <v>357.408808848844</v>
       </c>
       <c r="E37" t="n">
-        <v>1798.99840931243</v>
+        <v>1796.1668083446</v>
       </c>
       <c r="F37" t="n">
-        <v>1798.99840931243</v>
+        <v>1796.1668083446</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>532</v>
       </c>
       <c r="I37" t="n">
-        <v>558.542919555169</v>
+        <v>555.662404151016</v>
       </c>
       <c r="J37" t="s">
         <v>12</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>804.987329082251</v>
+        <v>802.792038900649</v>
       </c>
       <c r="C38" t="n">
-        <v>58.9669683314481</v>
+        <v>56.8514399014895</v>
       </c>
       <c r="D38" t="n">
-        <v>58.9669683314481</v>
+        <v>56.8514399014895</v>
       </c>
       <c r="E38" t="n">
-        <v>1551.14400776031</v>
+        <v>1548.97788889432</v>
       </c>
       <c r="F38" t="n">
-        <v>1551.14400776031</v>
+        <v>1548.97788889432</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>523</v>
       </c>
       <c r="I38" t="n">
-        <v>281.987329082251</v>
+        <v>279.792038900649</v>
       </c>
       <c r="J38" t="s">
         <v>12</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>601.406134804361</v>
+        <v>598.743721326973</v>
       </c>
       <c r="C39" t="n">
-        <v>-94.0775651999212</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-94.0775651999212</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>1339.23213879883</v>
+        <v>1336.55095972168</v>
       </c>
       <c r="F39" t="n">
-        <v>1339.23213879883</v>
+        <v>1336.55095972168</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>850</v>
       </c>
       <c r="I39" t="n">
-        <v>-248.593865195639</v>
+        <v>-251.256278673027</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>1201.22997406506</v>
+        <v>1198.65995284841</v>
       </c>
       <c r="C40" t="n">
-        <v>484.342472320307</v>
+        <v>481.721587876677</v>
       </c>
       <c r="D40" t="n">
-        <v>484.342472320307</v>
+        <v>481.721587876677</v>
       </c>
       <c r="E40" t="n">
-        <v>1923.48603977502</v>
+        <v>1920.85676525409</v>
       </c>
       <c r="F40" t="n">
-        <v>1923.48603977502</v>
+        <v>1920.85676525409</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>1289</v>
       </c>
       <c r="I40" t="n">
-        <v>-87.7700259349353</v>
+        <v>-90.3400471515852</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>1132.2489849175</v>
+        <v>1129.81153072095</v>
       </c>
       <c r="C41" t="n">
-        <v>409.838972908331</v>
+        <v>407.377802175268</v>
       </c>
       <c r="D41" t="n">
-        <v>409.838972908331</v>
+        <v>407.377802175268</v>
       </c>
       <c r="E41" t="n">
-        <v>1924.16567668549</v>
+        <v>1921.62562793683</v>
       </c>
       <c r="F41" t="n">
-        <v>1924.16567668549</v>
+        <v>1921.62562793683</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>1114</v>
       </c>
       <c r="I41" t="n">
-        <v>18.2489849175038</v>
+        <v>15.8115307209541</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>1105.47454224218</v>
+        <v>1102.86592315532</v>
       </c>
       <c r="C42" t="n">
-        <v>306.55556218848</v>
+        <v>303.980982887906</v>
       </c>
       <c r="D42" t="n">
-        <v>306.55556218848</v>
+        <v>303.980982887906</v>
       </c>
       <c r="E42" t="n">
-        <v>1882.70190620912</v>
+        <v>1879.96873774254</v>
       </c>
       <c r="F42" t="n">
-        <v>1882.70190620912</v>
+        <v>1879.96873774254</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>1076</v>
       </c>
       <c r="I42" t="n">
-        <v>29.4745422421831</v>
+        <v>26.8659231553179</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>1169.64942749437</v>
+        <v>1167.38367128922</v>
       </c>
       <c r="C43" t="n">
-        <v>463.894536396315</v>
+        <v>461.636153081614</v>
       </c>
       <c r="D43" t="n">
-        <v>463.894536396315</v>
+        <v>461.636153081614</v>
       </c>
       <c r="E43" t="n">
-        <v>1891.13961319162</v>
+        <v>1888.91399641154</v>
       </c>
       <c r="F43" t="n">
-        <v>1891.13961319162</v>
+        <v>1888.91399641154</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>944</v>
       </c>
       <c r="I43" t="n">
-        <v>225.649427494374</v>
+        <v>223.383671289215</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>1378.0592637874</v>
+        <v>1375.68824195331</v>
       </c>
       <c r="C44" t="n">
-        <v>598.334899630454</v>
+        <v>595.912709005705</v>
       </c>
       <c r="D44" t="n">
-        <v>598.334899630454</v>
+        <v>595.912709005705</v>
       </c>
       <c r="E44" t="n">
-        <v>2127.15685800749</v>
+        <v>2124.72511867479</v>
       </c>
       <c r="F44" t="n">
-        <v>2127.15685800749</v>
+        <v>2124.72511867479</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>1053</v>
       </c>
       <c r="I44" t="n">
-        <v>325.059263787397</v>
+        <v>322.688241953306</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>1373.48716994352</v>
+        <v>1370.80936048972</v>
       </c>
       <c r="C45" t="n">
-        <v>611.930716818288</v>
+        <v>609.311440116266</v>
       </c>
       <c r="D45" t="n">
-        <v>611.930716818288</v>
+        <v>609.311440116266</v>
       </c>
       <c r="E45" t="n">
-        <v>2127.2881981477</v>
+        <v>2124.61150940421</v>
       </c>
       <c r="F45" t="n">
-        <v>2127.2881981477</v>
+        <v>2124.61150940421</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>1111</v>
       </c>
       <c r="I45" t="n">
-        <v>262.487169943522</v>
+        <v>259.80936048972</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>1261.0628553439</v>
+        <v>1258.51154274096</v>
       </c>
       <c r="C46" t="n">
-        <v>493.065088701467</v>
+        <v>490.563159218939</v>
       </c>
       <c r="D46" t="n">
-        <v>493.065088701467</v>
+        <v>490.563159218939</v>
       </c>
       <c r="E46" t="n">
-        <v>2041.54217250436</v>
+        <v>2038.97736798111</v>
       </c>
       <c r="F46" t="n">
-        <v>2041.54217250436</v>
+        <v>2038.97736798111</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>1038</v>
       </c>
       <c r="I46" t="n">
-        <v>223.0628553439</v>
+        <v>220.511542740959</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>994.758758161453</v>
+        <v>992.355620161817</v>
       </c>
       <c r="C47" t="n">
-        <v>273.188862439406</v>
+        <v>270.752536574078</v>
       </c>
       <c r="D47" t="n">
-        <v>273.188862439406</v>
+        <v>270.752536574078</v>
       </c>
       <c r="E47" t="n">
-        <v>1728.51506064876</v>
+        <v>1725.96034834389</v>
       </c>
       <c r="F47" t="n">
-        <v>1728.51506064876</v>
+        <v>1725.96034834389</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>986</v>
       </c>
       <c r="I47" t="n">
-        <v>8.75875816145265</v>
+        <v>6.355620161817</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>992.92335358461</v>
+        <v>990.04138729317</v>
       </c>
       <c r="C48" t="n">
-        <v>195.910555408851</v>
+        <v>193.106191771479</v>
       </c>
       <c r="D48" t="n">
-        <v>195.910555408851</v>
+        <v>193.106191771479</v>
       </c>
       <c r="E48" t="n">
-        <v>1766.22825005798</v>
+        <v>1763.42676970002</v>
       </c>
       <c r="F48" t="n">
-        <v>1766.22825005798</v>
+        <v>1763.42676970002</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>1056</v>
       </c>
       <c r="I48" t="n">
-        <v>-63.0766464153904</v>
+        <v>-65.95861270683</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>964.67207667121</v>
+        <v>961.428467316487</v>
       </c>
       <c r="C49" t="n">
-        <v>191.119760993216</v>
+        <v>187.840495882159</v>
       </c>
       <c r="D49" t="n">
-        <v>191.119760993216</v>
+        <v>187.840495882159</v>
       </c>
       <c r="E49" t="n">
-        <v>1705.93335676843</v>
+        <v>1702.73592871489</v>
       </c>
       <c r="F49" t="n">
-        <v>1705.93335676843</v>
+        <v>1702.73592871489</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>975</v>
       </c>
       <c r="I49" t="n">
-        <v>-10.3279233287897</v>
+        <v>-13.5715326835134</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/forecast/Hepatitis A.xlsx
+++ b/outcome/appendix/forecast/Hepatitis A.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>1194.2081121999</v>
+        <v>1135.48548725184</v>
       </c>
       <c r="C2" t="n">
-        <v>537.664734040744</v>
+        <v>1017.58522953681</v>
       </c>
       <c r="D2" t="n">
-        <v>537.664734040744</v>
+        <v>961.36324370167</v>
       </c>
       <c r="E2" t="n">
-        <v>1916.14334979079</v>
+        <v>1270.98147808779</v>
       </c>
       <c r="F2" t="n">
-        <v>1916.14334979079</v>
+        <v>1350.91343161104</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>1251</v>
       </c>
       <c r="I2" t="n">
-        <v>-56.7918878000992</v>
+        <v>-115.514512748163</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>901.014704012086</v>
+        <v>1068.20069392239</v>
       </c>
       <c r="C3" t="n">
-        <v>198.702703095796</v>
+        <v>936.853073954604</v>
       </c>
       <c r="D3" t="n">
-        <v>198.702703095796</v>
+        <v>875.487603355728</v>
       </c>
       <c r="E3" t="n">
-        <v>1554.30940755209</v>
+        <v>1223.41628292922</v>
       </c>
       <c r="F3" t="n">
-        <v>1554.30940755209</v>
+        <v>1317.03339758542</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>1295</v>
       </c>
       <c r="I3" t="n">
-        <v>-393.985295987914</v>
+        <v>-226.799306077609</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>1598.26324488365</v>
+        <v>1364.54139455306</v>
       </c>
       <c r="C4" t="n">
-        <v>914.910851046734</v>
+        <v>1162.64953535815</v>
       </c>
       <c r="D4" t="n">
-        <v>914.910851046734</v>
+        <v>1070.87387172893</v>
       </c>
       <c r="E4" t="n">
-        <v>2285.29201059258</v>
+        <v>1612.26284451</v>
       </c>
       <c r="F4" t="n">
-        <v>2285.29201059258</v>
+        <v>1766.24961371558</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,10 +512,10 @@
         <v>1529</v>
       </c>
       <c r="I4" t="n">
-        <v>69.2632448836544</v>
+        <v>-164.458605446935</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>1482.29958253373</v>
+        <v>1279.11960423353</v>
       </c>
       <c r="C5" t="n">
-        <v>817.81505083326</v>
+        <v>1073.18973406313</v>
       </c>
       <c r="D5" t="n">
-        <v>817.81505083326</v>
+        <v>980.933933260524</v>
       </c>
       <c r="E5" t="n">
-        <v>2170.18035020982</v>
+        <v>1536.94750811372</v>
       </c>
       <c r="F5" t="n">
-        <v>2170.18035020982</v>
+        <v>1699.85189987685</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>1187</v>
       </c>
       <c r="I5" t="n">
-        <v>295.299582533733</v>
+        <v>92.1196042335273</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>1488.63759776225</v>
+        <v>1267.41357620941</v>
       </c>
       <c r="C6" t="n">
-        <v>808.263161432534</v>
+        <v>1046.75274370833</v>
       </c>
       <c r="D6" t="n">
-        <v>808.263161432534</v>
+        <v>949.35787834091</v>
       </c>
       <c r="E6" t="n">
-        <v>2220.12631922139</v>
+        <v>1549.46574105028</v>
       </c>
       <c r="F6" t="n">
-        <v>2220.12631922139</v>
+        <v>1730.69878540938</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>1100</v>
       </c>
       <c r="I6" t="n">
-        <v>388.637597762253</v>
+        <v>167.413576209407</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>1397.36757412023</v>
+        <v>1269.80163573883</v>
       </c>
       <c r="C7" t="n">
-        <v>725.544557040924</v>
+        <v>1033.21412300097</v>
       </c>
       <c r="D7" t="n">
-        <v>725.544557040924</v>
+        <v>930.248418553124</v>
       </c>
       <c r="E7" t="n">
-        <v>2075.80184582888</v>
+        <v>1578.22269533989</v>
       </c>
       <c r="F7" t="n">
-        <v>2075.80184582888</v>
+        <v>1779.60940974513</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>1249</v>
       </c>
       <c r="I7" t="n">
-        <v>148.367574120229</v>
+        <v>20.8016357388281</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>1541.73980957755</v>
+        <v>1382.22920555566</v>
       </c>
       <c r="C8" t="n">
-        <v>895.931734906683</v>
+        <v>1104.24273206795</v>
       </c>
       <c r="D8" t="n">
-        <v>895.931734906683</v>
+        <v>985.335979150108</v>
       </c>
       <c r="E8" t="n">
-        <v>2231.66552949717</v>
+        <v>1753.55591555603</v>
       </c>
       <c r="F8" t="n">
-        <v>2231.66552949717</v>
+        <v>2000.91589810794</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,10 +640,10 @@
         <v>1401</v>
       </c>
       <c r="I8" t="n">
-        <v>140.739809577546</v>
+        <v>-18.770794444335</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>1682.04474918315</v>
+        <v>1416.62207029795</v>
       </c>
       <c r="C9" t="n">
-        <v>1003.8964784256</v>
+        <v>1115.34945335572</v>
       </c>
       <c r="D9" t="n">
-        <v>1003.8964784256</v>
+        <v>988.23956369792</v>
       </c>
       <c r="E9" t="n">
-        <v>2324.90507933674</v>
+        <v>1826.95305917741</v>
       </c>
       <c r="F9" t="n">
-        <v>2324.90507933674</v>
+        <v>2104.717813495</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>1401</v>
       </c>
       <c r="I9" t="n">
-        <v>281.044749183148</v>
+        <v>15.6220702979456</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>1584.77641344869</v>
+        <v>1390.55162278876</v>
       </c>
       <c r="C10" t="n">
-        <v>825.67387969078</v>
+        <v>1082.48154490801</v>
       </c>
       <c r="D10" t="n">
-        <v>825.67387969078</v>
+        <v>953.884076417194</v>
       </c>
       <c r="E10" t="n">
-        <v>2271.90619236218</v>
+        <v>1816.56127143122</v>
       </c>
       <c r="F10" t="n">
-        <v>2271.90619236218</v>
+        <v>2108.59365748894</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>1335</v>
       </c>
       <c r="I10" t="n">
-        <v>249.776413448694</v>
+        <v>55.5516227887636</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>1351.44006371106</v>
+        <v>1278.49656979688</v>
       </c>
       <c r="C11" t="n">
-        <v>665.31999683199</v>
+        <v>988.820908545795</v>
       </c>
       <c r="D11" t="n">
-        <v>665.31999683199</v>
+        <v>868.637406830952</v>
       </c>
       <c r="E11" t="n">
-        <v>2036.5971365835</v>
+        <v>1682.57305417432</v>
       </c>
       <c r="F11" t="n">
-        <v>2036.5971365835</v>
+        <v>1961.58344668335</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>1181</v>
       </c>
       <c r="I11" t="n">
-        <v>170.440063711063</v>
+        <v>97.4965697968837</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>1341.58140701611</v>
+        <v>1303.58944415523</v>
       </c>
       <c r="C12" t="n">
-        <v>656.509318530548</v>
+        <v>995.926653563258</v>
       </c>
       <c r="D12" t="n">
-        <v>656.509318530548</v>
+        <v>869.746305768565</v>
       </c>
       <c r="E12" t="n">
-        <v>2045.60677344489</v>
+        <v>1739.91358046335</v>
       </c>
       <c r="F12" t="n">
-        <v>2045.60677344489</v>
+        <v>2045.37687462254</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>1243</v>
       </c>
       <c r="I12" t="n">
-        <v>98.5814070161123</v>
+        <v>60.5894441552277</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>1344.99170181718</v>
+        <v>1287.44942694232</v>
       </c>
       <c r="C13" t="n">
-        <v>630.907784665871</v>
+        <v>974.061600971524</v>
       </c>
       <c r="D13" t="n">
-        <v>630.907784665871</v>
+        <v>846.705083366157</v>
       </c>
       <c r="E13" t="n">
-        <v>2012.82464631917</v>
+        <v>1737.78401760772</v>
       </c>
       <c r="F13" t="n">
-        <v>2012.82464631917</v>
+        <v>2056.55202022697</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>1196</v>
       </c>
       <c r="I13" t="n">
-        <v>148.991701817177</v>
+        <v>91.4494269423235</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>822.548727626082</v>
+        <v>1125.16468517844</v>
       </c>
       <c r="C14" t="n">
-        <v>145.951764040075</v>
+        <v>850.550788087517</v>
       </c>
       <c r="D14" t="n">
-        <v>145.951764040075</v>
+        <v>739.041307870381</v>
       </c>
       <c r="E14" t="n">
-        <v>1512.77083507119</v>
+        <v>1520.23970467432</v>
       </c>
       <c r="F14" t="n">
-        <v>1512.77083507119</v>
+        <v>1800.16474238569</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,10 +832,10 @@
         <v>960</v>
       </c>
       <c r="I14" t="n">
-        <v>-137.451272373918</v>
+        <v>165.164685178435</v>
       </c>
       <c r="J14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>791.076995902518</v>
+        <v>1058.83639040284</v>
       </c>
       <c r="C15" t="n">
-        <v>101.173852663913</v>
+        <v>796.235746854776</v>
       </c>
       <c r="D15" t="n">
-        <v>101.173852663913</v>
+        <v>690.12722654185</v>
       </c>
       <c r="E15" t="n">
-        <v>1488.97025891488</v>
+        <v>1439.31624113189</v>
       </c>
       <c r="F15" t="n">
-        <v>1488.97025891488</v>
+        <v>1710.51002223199</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>745</v>
       </c>
       <c r="I15" t="n">
-        <v>46.076995902518</v>
+        <v>313.836390402843</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>1465.83146947386</v>
+        <v>1352.08902255849</v>
       </c>
       <c r="C16" t="n">
-        <v>767.561189995367</v>
+        <v>989.783366838902</v>
       </c>
       <c r="D16" t="n">
-        <v>767.561189995367</v>
+        <v>847.037826302125</v>
       </c>
       <c r="E16" t="n">
-        <v>2112.82088879259</v>
+        <v>1896.62026714597</v>
       </c>
       <c r="F16" t="n">
-        <v>2112.82088879259</v>
+        <v>2296.94204218779</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>1128</v>
       </c>
       <c r="I16" t="n">
-        <v>337.831469473859</v>
+        <v>224.089022558485</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>1364.70396828468</v>
+        <v>1267.87144008522</v>
       </c>
       <c r="C17" t="n">
-        <v>672.893808473196</v>
+        <v>924.177960653649</v>
       </c>
       <c r="D17" t="n">
-        <v>672.893808473196</v>
+        <v>789.306986349567</v>
       </c>
       <c r="E17" t="n">
-        <v>2010.20442528659</v>
+        <v>1787.4589064585</v>
       </c>
       <c r="F17" t="n">
-        <v>2010.20442528659</v>
+        <v>2171.34422288825</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>1142</v>
       </c>
       <c r="I17" t="n">
-        <v>222.703968284679</v>
+        <v>125.871440085217</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>1359.01921024167</v>
+        <v>1256.52424186967</v>
       </c>
       <c r="C18" t="n">
-        <v>663.157771641434</v>
+        <v>908.524904417511</v>
       </c>
       <c r="D18" t="n">
-        <v>663.157771641434</v>
+        <v>772.997010080304</v>
       </c>
       <c r="E18" t="n">
-        <v>2050.40172159327</v>
+        <v>1788.49599473969</v>
       </c>
       <c r="F18" t="n">
-        <v>2050.40172159327</v>
+        <v>2185.26265205049</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>1095</v>
       </c>
       <c r="I18" t="n">
-        <v>264.01921024167</v>
+        <v>161.524241869668</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>1319.42194534406</v>
+        <v>1259.11279136345</v>
       </c>
       <c r="C19" t="n">
-        <v>625.102014853992</v>
+        <v>902.523455194806</v>
       </c>
       <c r="D19" t="n">
-        <v>625.102014853992</v>
+        <v>764.776693746643</v>
       </c>
       <c r="E19" t="n">
-        <v>2012.28028138983</v>
+        <v>1810.77003048678</v>
       </c>
       <c r="F19" t="n">
-        <v>2012.28028138983</v>
+        <v>2226.43719804559</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>1089</v>
       </c>
       <c r="I19" t="n">
-        <v>230.421945344055</v>
+        <v>170.112791363453</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>1486.78928051869</v>
+        <v>1370.59119652986</v>
       </c>
       <c r="C20" t="n">
-        <v>864.281827096959</v>
+        <v>967.495698033236</v>
       </c>
       <c r="D20" t="n">
-        <v>864.281827096959</v>
+        <v>814.00359407553</v>
       </c>
       <c r="E20" t="n">
-        <v>2175.43512149227</v>
+        <v>2007.53435145253</v>
       </c>
       <c r="F20" t="n">
-        <v>2175.43512149227</v>
+        <v>2496.2476223719</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>1038</v>
       </c>
       <c r="I20" t="n">
-        <v>448.789280518691</v>
+        <v>332.591196529862</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>1579.41796549232</v>
+        <v>1404.86974030033</v>
       </c>
       <c r="C21" t="n">
-        <v>880.991425008628</v>
+        <v>981.483987602932</v>
       </c>
       <c r="D21" t="n">
-        <v>880.991425008628</v>
+        <v>821.820673988881</v>
       </c>
       <c r="E21" t="n">
-        <v>2264.01083577539</v>
+        <v>2083.54964415392</v>
       </c>
       <c r="F21" t="n">
-        <v>2264.01083577539</v>
+        <v>2610.76318618629</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>1057</v>
       </c>
       <c r="I21" t="n">
-        <v>522.417965492316</v>
+        <v>347.869740300331</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>1476.72378510263</v>
+        <v>1379.30688496535</v>
       </c>
       <c r="C22" t="n">
-        <v>757.108966331084</v>
+        <v>957.425383844798</v>
       </c>
       <c r="D22" t="n">
-        <v>757.108966331084</v>
+        <v>799.287877807257</v>
       </c>
       <c r="E22" t="n">
-        <v>2137.35797307964</v>
+        <v>2061.67724015112</v>
       </c>
       <c r="F22" t="n">
-        <v>2137.35797307964</v>
+        <v>2595.88431009578</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>1105</v>
       </c>
       <c r="I22" t="n">
-        <v>371.723785102632</v>
+        <v>274.306884965346</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>1231.85792427127</v>
+        <v>1268.58240750694</v>
       </c>
       <c r="C23" t="n">
-        <v>539.492515593342</v>
+        <v>880.186514815241</v>
       </c>
       <c r="D23" t="n">
-        <v>539.492515593342</v>
+        <v>734.659697155904</v>
       </c>
       <c r="E23" t="n">
-        <v>1956.95875432702</v>
+        <v>1897.17063466519</v>
       </c>
       <c r="F23" t="n">
-        <v>1956.95875432702</v>
+        <v>2389.52994156744</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>940</v>
       </c>
       <c r="I23" t="n">
-        <v>291.857924271274</v>
+        <v>328.582407506943</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>1224.0610188366</v>
+        <v>1293.6420710903</v>
       </c>
       <c r="C24" t="n">
-        <v>539.137012297322</v>
+        <v>889.298463572601</v>
       </c>
       <c r="D24" t="n">
-        <v>539.137012297322</v>
+        <v>739.103928245043</v>
       </c>
       <c r="E24" t="n">
-        <v>1881.47204357485</v>
+        <v>1956.55450106099</v>
       </c>
       <c r="F24" t="n">
-        <v>1881.47204357485</v>
+        <v>2481.64377384159</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>1026</v>
       </c>
       <c r="I24" t="n">
-        <v>198.061018836601</v>
+        <v>267.642071090302</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>1215.52075800621</v>
+        <v>1277.8587602664</v>
       </c>
       <c r="C25" t="n">
-        <v>525.899487642701</v>
+        <v>872.970381826643</v>
       </c>
       <c r="D25" t="n">
-        <v>525.899487642701</v>
+        <v>723.451143726834</v>
       </c>
       <c r="E25" t="n">
-        <v>1890.86993209321</v>
+        <v>1947.50060618397</v>
       </c>
       <c r="F25" t="n">
-        <v>1890.86993209321</v>
+        <v>2481.96705296968</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>1068</v>
       </c>
       <c r="I25" t="n">
-        <v>147.520758006213</v>
+        <v>209.858760266399</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>812.390289595686</v>
+        <v>1117.22836239359</v>
       </c>
       <c r="C26" t="n">
-        <v>75.1658892882825</v>
+        <v>767.121651545259</v>
       </c>
       <c r="D26" t="n">
-        <v>75.1658892882825</v>
+        <v>637.216693509574</v>
       </c>
       <c r="E26" t="n">
-        <v>1491.77340008032</v>
+        <v>1692.16584899948</v>
       </c>
       <c r="F26" t="n">
-        <v>1491.77340008032</v>
+        <v>2148.22116582682</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,10 +1216,10 @@
         <v>956</v>
       </c>
       <c r="I26" t="n">
-        <v>-143.609710404314</v>
+        <v>161.228362393589</v>
       </c>
       <c r="J26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>695.605364523283</v>
+        <v>1051.63297647715</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>721.119136817451</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>598.636996618398</v>
       </c>
       <c r="E27" t="n">
-        <v>1410.80982824297</v>
+        <v>1595.40937096931</v>
       </c>
       <c r="F27" t="n">
-        <v>1410.80982824297</v>
+        <v>2027.44609673474</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,10 +1248,10 @@
         <v>830</v>
       </c>
       <c r="I27" t="n">
-        <v>-134.394635476717</v>
+        <v>221.632976477145</v>
       </c>
       <c r="J27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>1332.61551630871</v>
+        <v>1342.5139895499</v>
       </c>
       <c r="C28" t="n">
-        <v>651.181890923707</v>
+        <v>893.666357509014</v>
       </c>
       <c r="D28" t="n">
-        <v>651.181890923707</v>
+        <v>731.883208545143</v>
       </c>
       <c r="E28" t="n">
-        <v>1979.95321998049</v>
+        <v>2112.44528793668</v>
       </c>
       <c r="F28" t="n">
-        <v>1979.95321998049</v>
+        <v>2746.85108568602</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>1050</v>
       </c>
       <c r="I28" t="n">
-        <v>282.615516308713</v>
+        <v>292.5139895499</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>1247.19397937216</v>
+        <v>1259.21914572701</v>
       </c>
       <c r="C29" t="n">
-        <v>575.548567489275</v>
+        <v>837.732240822232</v>
       </c>
       <c r="D29" t="n">
-        <v>575.548567489275</v>
+        <v>685.893591848676</v>
       </c>
       <c r="E29" t="n">
-        <v>1957.96633303418</v>
+        <v>1982.81216723362</v>
       </c>
       <c r="F29" t="n">
-        <v>1957.96633303418</v>
+        <v>2579.46674908935</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>896</v>
       </c>
       <c r="I29" t="n">
-        <v>351.193979372159</v>
+        <v>363.219145727006</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>1230.41799035424</v>
+        <v>1248.14607260842</v>
       </c>
       <c r="C30" t="n">
-        <v>492.488510026654</v>
+        <v>825.597587531315</v>
       </c>
       <c r="D30" t="n">
-        <v>492.488510026654</v>
+        <v>674.193269061961</v>
       </c>
       <c r="E30" t="n">
-        <v>1990.31450234186</v>
+        <v>1979.49854989505</v>
       </c>
       <c r="F30" t="n">
-        <v>1990.31450234186</v>
+        <v>2586.88446321064</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>960</v>
       </c>
       <c r="I30" t="n">
-        <v>270.41799035424</v>
+        <v>288.146072608423</v>
       </c>
       <c r="J30" t="s">
         <v>12</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>1242.77191656059</v>
+        <v>1250.88727529366</v>
       </c>
       <c r="C31" t="n">
-        <v>466.316195352846</v>
+        <v>821.871840619315</v>
       </c>
       <c r="D31" t="n">
-        <v>466.316195352846</v>
+        <v>669.111714616512</v>
       </c>
       <c r="E31" t="n">
-        <v>1970.42933770133</v>
+        <v>2000.54200328532</v>
       </c>
       <c r="F31" t="n">
-        <v>1970.42933770133</v>
+        <v>2628.37233113703</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>1038</v>
       </c>
       <c r="I31" t="n">
-        <v>204.771916560589</v>
+        <v>212.887275293662</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>1431.45967806702</v>
+        <v>1361.63527843232</v>
       </c>
       <c r="C32" t="n">
-        <v>730.122187080033</v>
+        <v>881.248189331202</v>
       </c>
       <c r="D32" t="n">
-        <v>730.122187080033</v>
+        <v>712.587161451947</v>
       </c>
       <c r="E32" t="n">
-        <v>2133.97844829587</v>
+        <v>2219.27712688982</v>
       </c>
       <c r="F32" t="n">
-        <v>2133.97844829587</v>
+        <v>2951.30841534424</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>1069</v>
       </c>
       <c r="I32" t="n">
-        <v>362.459678067021</v>
+        <v>292.635278432318</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>1475.67541680769</v>
+        <v>1395.82459535499</v>
       </c>
       <c r="C33" t="n">
-        <v>771.300193926645</v>
+        <v>895.274058111305</v>
       </c>
       <c r="D33" t="n">
-        <v>771.300193926645</v>
+        <v>721.004860371502</v>
       </c>
       <c r="E33" t="n">
-        <v>2172.02022130365</v>
+        <v>2301.05438213096</v>
       </c>
       <c r="F33" t="n">
-        <v>2172.02022130365</v>
+        <v>3082.59250484598</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>1116</v>
       </c>
       <c r="I33" t="n">
-        <v>359.675416807685</v>
+        <v>279.824595354989</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>1367.96252638589</v>
+        <v>1370.65037779957</v>
       </c>
       <c r="C34" t="n">
-        <v>654.202975631018</v>
+        <v>875.277224897356</v>
       </c>
       <c r="D34" t="n">
-        <v>654.202975631018</v>
+        <v>703.515307332463</v>
       </c>
       <c r="E34" t="n">
-        <v>2095.4322022</v>
+        <v>2272.17331591239</v>
       </c>
       <c r="F34" t="n">
-        <v>2095.4322022</v>
+        <v>3054.88244786186</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>945</v>
       </c>
       <c r="I34" t="n">
-        <v>422.962526385895</v>
+        <v>425.650377799568</v>
       </c>
       <c r="J34" t="s">
         <v>12</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>1112.15088522603</v>
+        <v>1260.94737875379</v>
       </c>
       <c r="C35" t="n">
-        <v>358.719611732168</v>
+        <v>807.405975444937</v>
       </c>
       <c r="D35" t="n">
-        <v>358.719611732168</v>
+        <v>649.750722008403</v>
       </c>
       <c r="E35" t="n">
-        <v>1844.8558177484</v>
+        <v>2083.14142938786</v>
       </c>
       <c r="F35" t="n">
-        <v>1844.8558177484</v>
+        <v>2794.51283332638</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>752</v>
       </c>
       <c r="I35" t="n">
-        <v>360.150885226025</v>
+        <v>508.947378753791</v>
       </c>
       <c r="J35" t="s">
         <v>12</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>1106.86922473894</v>
+        <v>1285.98040551034</v>
       </c>
       <c r="C36" t="n">
-        <v>428.854166691255</v>
+        <v>816.787459166373</v>
       </c>
       <c r="D36" t="n">
-        <v>428.854166691255</v>
+        <v>654.920050620062</v>
       </c>
       <c r="E36" t="n">
-        <v>1849.0390264306</v>
+        <v>2146.50512253204</v>
       </c>
       <c r="F36" t="n">
-        <v>1849.0390264306</v>
+        <v>2898.80137415804</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>749</v>
       </c>
       <c r="I36" t="n">
-        <v>357.869224738941</v>
+        <v>536.980405510337</v>
       </c>
       <c r="J36" t="s">
         <v>12</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>1087.66240415102</v>
+        <v>1270.47033832536</v>
       </c>
       <c r="C37" t="n">
-        <v>357.408808848844</v>
+        <v>803.225552390599</v>
       </c>
       <c r="D37" t="n">
-        <v>357.408808848844</v>
+        <v>642.721591264277</v>
       </c>
       <c r="E37" t="n">
-        <v>1796.1668083446</v>
+        <v>2133.12545500896</v>
       </c>
       <c r="F37" t="n">
-        <v>1796.1668083446</v>
+        <v>2891.76508958302</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>532</v>
       </c>
       <c r="I37" t="n">
-        <v>555.662404151016</v>
+        <v>738.470338325362</v>
       </c>
       <c r="J37" t="s">
         <v>12</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>802.792038900649</v>
+        <v>1111.11170092797</v>
       </c>
       <c r="C38" t="n">
-        <v>56.8514399014895</v>
+        <v>708.607623946314</v>
       </c>
       <c r="D38" t="n">
-        <v>56.8514399014895</v>
+        <v>569.217427498961</v>
       </c>
       <c r="E38" t="n">
-        <v>1548.97788889432</v>
+        <v>1845.00683719259</v>
       </c>
       <c r="F38" t="n">
-        <v>1548.97788889432</v>
+        <v>2483.25199442349</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>523</v>
       </c>
       <c r="I38" t="n">
-        <v>279.792038900649</v>
+        <v>588.111700927974</v>
       </c>
       <c r="J38" t="s">
         <v>12</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>598.743721326973</v>
+        <v>1046.07962684649</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>667.73136434007</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>536.59701174635</v>
       </c>
       <c r="E39" t="n">
-        <v>1336.55095972168</v>
+        <v>1735.04458394252</v>
       </c>
       <c r="F39" t="n">
-        <v>1336.55095972168</v>
+        <v>2333.52958227388</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,10 +1632,10 @@
         <v>850</v>
       </c>
       <c r="I39" t="n">
-        <v>-251.256278673027</v>
+        <v>196.079626846487</v>
       </c>
       <c r="J39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40">
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>1198.65995284841</v>
+        <v>1335.13457821749</v>
       </c>
       <c r="C40" t="n">
-        <v>481.721587876677</v>
+        <v>825.037469517428</v>
       </c>
       <c r="D40" t="n">
-        <v>481.721587876677</v>
+        <v>653.505748465133</v>
       </c>
       <c r="E40" t="n">
-        <v>1920.85676525409</v>
+        <v>2308.55856079385</v>
       </c>
       <c r="F40" t="n">
-        <v>1920.85676525409</v>
+        <v>3190.39177736845</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,10 +1664,10 @@
         <v>1289</v>
       </c>
       <c r="I40" t="n">
-        <v>-90.3400471515852</v>
+        <v>46.1345782174899</v>
       </c>
       <c r="J40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>1129.81153072095</v>
+        <v>1252.54896383325</v>
       </c>
       <c r="C41" t="n">
-        <v>407.377802175268</v>
+        <v>775.279488764846</v>
       </c>
       <c r="D41" t="n">
-        <v>407.377802175268</v>
+        <v>614.540466775288</v>
       </c>
       <c r="E41" t="n">
-        <v>1921.62562793683</v>
+        <v>2161.15260316372</v>
       </c>
       <c r="F41" t="n">
-        <v>1921.62562793683</v>
+        <v>2982.49306613058</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>1114</v>
       </c>
       <c r="I41" t="n">
-        <v>15.8115307209541</v>
+        <v>138.54896383325</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>1102.86592315532</v>
+        <v>1241.68608777544</v>
       </c>
       <c r="C42" t="n">
-        <v>303.980982887906</v>
+        <v>765.108691344494</v>
       </c>
       <c r="D42" t="n">
-        <v>303.980982887906</v>
+        <v>605.273503919903</v>
       </c>
       <c r="E42" t="n">
-        <v>1879.96873774254</v>
+        <v>2154.91817636102</v>
       </c>
       <c r="F42" t="n">
-        <v>1879.96873774254</v>
+        <v>2985.31863369078</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>1076</v>
       </c>
       <c r="I42" t="n">
-        <v>26.8659231553179</v>
+        <v>165.686087775441</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>1167.38367128922</v>
+        <v>1244.5440371734</v>
       </c>
       <c r="C43" t="n">
-        <v>461.636153081614</v>
+        <v>762.528980261422</v>
       </c>
       <c r="D43" t="n">
-        <v>461.636153081614</v>
+        <v>601.722549975086</v>
       </c>
       <c r="E43" t="n">
-        <v>1888.91399641154</v>
+        <v>2175.8611345736</v>
       </c>
       <c r="F43" t="n">
-        <v>1888.91399641154</v>
+        <v>3029.05173647494</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>944</v>
       </c>
       <c r="I43" t="n">
-        <v>223.383671289215</v>
+        <v>300.544037173397</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>1375.68824195331</v>
+        <v>1354.72879115474</v>
       </c>
       <c r="C44" t="n">
-        <v>595.912709005705</v>
+        <v>817.394348880282</v>
       </c>
       <c r="D44" t="n">
-        <v>595.912709005705</v>
+        <v>640.676519277719</v>
       </c>
       <c r="E44" t="n">
-        <v>2124.72511867479</v>
+        <v>2416.4909635521</v>
       </c>
       <c r="F44" t="n">
-        <v>2124.72511867479</v>
+        <v>3409.18010928088</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>1053</v>
       </c>
       <c r="I44" t="n">
-        <v>322.688241953306</v>
+        <v>301.72879115474</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>1370.80936048972</v>
+        <v>1388.84855181795</v>
       </c>
       <c r="C45" t="n">
-        <v>609.311440116266</v>
+        <v>830.990680138928</v>
       </c>
       <c r="D45" t="n">
-        <v>609.311440116266</v>
+        <v>648.947852231897</v>
       </c>
       <c r="E45" t="n">
-        <v>2124.61150940421</v>
+        <v>2504.80835087498</v>
       </c>
       <c r="F45" t="n">
-        <v>2124.61150940421</v>
+        <v>3559.92572963142</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>1111</v>
       </c>
       <c r="I45" t="n">
-        <v>259.80936048972</v>
+        <v>277.848551817955</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>1258.51154274096</v>
+        <v>1363.97285834162</v>
       </c>
       <c r="C46" t="n">
-        <v>490.563159218939</v>
+        <v>813.549602791091</v>
       </c>
       <c r="D46" t="n">
-        <v>490.563159218939</v>
+        <v>634.456597493031</v>
       </c>
       <c r="E46" t="n">
-        <v>2038.97736798111</v>
+        <v>2470.15777563851</v>
       </c>
       <c r="F46" t="n">
-        <v>2038.97736798111</v>
+        <v>3520.45226731287</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>1038</v>
       </c>
       <c r="I46" t="n">
-        <v>220.511542740959</v>
+        <v>325.972858341625</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>992.355620161817</v>
+        <v>1255.05612087325</v>
       </c>
       <c r="C47" t="n">
-        <v>270.752536574078</v>
+        <v>752.238891405406</v>
       </c>
       <c r="D47" t="n">
-        <v>270.752536574078</v>
+        <v>587.892817075676</v>
       </c>
       <c r="E47" t="n">
-        <v>1725.96034834389</v>
+        <v>2258.35498494677</v>
       </c>
       <c r="F47" t="n">
-        <v>1725.96034834389</v>
+        <v>3204.75547270213</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>986</v>
       </c>
       <c r="I47" t="n">
-        <v>6.355620161817</v>
+        <v>269.05612087325</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>990.04138729317</v>
+        <v>1280.06796052612</v>
       </c>
       <c r="C48" t="n">
-        <v>193.106191771479</v>
+        <v>761.49342777596</v>
       </c>
       <c r="D48" t="n">
-        <v>193.106191771479</v>
+        <v>593.176569468447</v>
       </c>
       <c r="E48" t="n">
-        <v>1763.42676970002</v>
+        <v>2326.30355863113</v>
       </c>
       <c r="F48" t="n">
-        <v>1763.42676970002</v>
+        <v>3323.21092612559</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,10 +1920,10 @@
         <v>1056</v>
       </c>
       <c r="I48" t="n">
-        <v>-65.95861270683</v>
+        <v>224.067960526121</v>
       </c>
       <c r="J48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>961.428467316487</v>
+        <v>1264.76785741642</v>
       </c>
       <c r="C49" t="n">
-        <v>187.840495882159</v>
+        <v>749.701535519588</v>
       </c>
       <c r="D49" t="n">
-        <v>187.840495882159</v>
+        <v>583.079461778565</v>
       </c>
       <c r="E49" t="n">
-        <v>1702.73592871489</v>
+        <v>2309.43096906009</v>
       </c>
       <c r="F49" t="n">
-        <v>1702.73592871489</v>
+        <v>3309.6637962978</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,10 +1952,10 @@
         <v>975</v>
       </c>
       <c r="I49" t="n">
-        <v>-13.5715326835134</v>
+        <v>289.767857416417</v>
       </c>
       <c r="J49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/outcome/appendix/forecast/Hepatitis A.xlsx
+++ b/outcome/appendix/forecast/Hepatitis A.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>1135.48548725184</v>
+        <v>1137.70903515902</v>
       </c>
       <c r="C2" t="n">
-        <v>1017.58522953681</v>
+        <v>1019.16860833852</v>
       </c>
       <c r="D2" t="n">
-        <v>961.36324370167</v>
+        <v>962.659695668637</v>
       </c>
       <c r="E2" t="n">
-        <v>1270.98147808779</v>
+        <v>1274.0014507962</v>
       </c>
       <c r="F2" t="n">
-        <v>1350.91343161104</v>
+        <v>1354.43196704166</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>1251</v>
       </c>
       <c r="I2" t="n">
-        <v>-115.514512748163</v>
+        <v>-113.290964840975</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>1068.20069392239</v>
+        <v>1062.89756111155</v>
       </c>
       <c r="C3" t="n">
-        <v>936.853073954604</v>
+        <v>928.981418825819</v>
       </c>
       <c r="D3" t="n">
-        <v>875.487603355728</v>
+        <v>866.615893550182</v>
       </c>
       <c r="E3" t="n">
-        <v>1223.41628292922</v>
+        <v>1221.84377014876</v>
       </c>
       <c r="F3" t="n">
-        <v>1317.03339758542</v>
+        <v>1318.04789009047</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>1295</v>
       </c>
       <c r="I3" t="n">
-        <v>-226.799306077609</v>
+        <v>-232.102438888454</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>1364.54139455306</v>
+        <v>1340.34678255512</v>
       </c>
       <c r="C4" t="n">
-        <v>1162.64953535815</v>
+        <v>1135.66048783977</v>
       </c>
       <c r="D4" t="n">
-        <v>1070.87387172893</v>
+        <v>1043.09972012856</v>
       </c>
       <c r="E4" t="n">
-        <v>1612.26284451</v>
+        <v>1593.32058832186</v>
       </c>
       <c r="F4" t="n">
-        <v>1766.24961371558</v>
+        <v>1751.49426639246</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>1529</v>
       </c>
       <c r="I4" t="n">
-        <v>-164.458605446935</v>
+        <v>-188.653217444883</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>1279.11960423353</v>
+        <v>1268.24515699319</v>
       </c>
       <c r="C5" t="n">
-        <v>1073.18973406313</v>
+        <v>1055.78148067738</v>
       </c>
       <c r="D5" t="n">
-        <v>980.933933260524</v>
+        <v>961.291210318595</v>
       </c>
       <c r="E5" t="n">
-        <v>1536.94750811372</v>
+        <v>1536.97084791807</v>
       </c>
       <c r="F5" t="n">
-        <v>1699.85189987685</v>
+        <v>1708.16844624487</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>1187</v>
       </c>
       <c r="I5" t="n">
-        <v>92.1196042335273</v>
+        <v>81.2451569931929</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>1267.41357620941</v>
+        <v>1245.33607415256</v>
       </c>
       <c r="C6" t="n">
-        <v>1046.75274370833</v>
+        <v>1019.32552325633</v>
       </c>
       <c r="D6" t="n">
-        <v>949.35787834091</v>
+        <v>920.402059808449</v>
       </c>
       <c r="E6" t="n">
-        <v>1549.46574105028</v>
+        <v>1537.63558161464</v>
       </c>
       <c r="F6" t="n">
-        <v>1730.69878540938</v>
+        <v>1727.261605154</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>1100</v>
       </c>
       <c r="I6" t="n">
-        <v>167.413576209407</v>
+        <v>145.336074152558</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>1269.80163573883</v>
+        <v>1239.15408150099</v>
       </c>
       <c r="C7" t="n">
-        <v>1033.21412300097</v>
+        <v>998.241554320872</v>
       </c>
       <c r="D7" t="n">
-        <v>930.248418553124</v>
+        <v>894.367243451144</v>
       </c>
       <c r="E7" t="n">
-        <v>1578.22269533989</v>
+        <v>1557.36481111775</v>
       </c>
       <c r="F7" t="n">
-        <v>1779.60940974513</v>
+        <v>1767.39641947335</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,10 +608,10 @@
         <v>1249</v>
       </c>
       <c r="I7" t="n">
-        <v>20.8016357388281</v>
+        <v>-9.84591849900812</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>1382.22920555566</v>
+        <v>1346.42907091483</v>
       </c>
       <c r="C8" t="n">
-        <v>1104.24273206795</v>
+        <v>1063.52900771871</v>
       </c>
       <c r="D8" t="n">
-        <v>985.335979150108</v>
+        <v>943.792908355006</v>
       </c>
       <c r="E8" t="n">
-        <v>1753.55591555603</v>
+        <v>1730.02327208026</v>
       </c>
       <c r="F8" t="n">
-        <v>2000.91589810794</v>
+        <v>1988.73888641554</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>1401</v>
       </c>
       <c r="I8" t="n">
-        <v>-18.770794444335</v>
+        <v>-54.5709290851657</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>1416.62207029795</v>
+        <v>1375.0625014974</v>
       </c>
       <c r="C9" t="n">
-        <v>1115.34945335572</v>
+        <v>1069.40174435463</v>
       </c>
       <c r="D9" t="n">
-        <v>988.23956369792</v>
+        <v>941.910904678059</v>
       </c>
       <c r="E9" t="n">
-        <v>1826.95305917741</v>
+        <v>1798.22989384746</v>
       </c>
       <c r="F9" t="n">
-        <v>2104.717813495</v>
+        <v>2088.59975036333</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,10 +672,10 @@
         <v>1401</v>
       </c>
       <c r="I9" t="n">
-        <v>15.6220702979456</v>
+        <v>-25.937498502605</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>1390.55162278876</v>
+        <v>1352.33689160844</v>
       </c>
       <c r="C10" t="n">
-        <v>1082.48154490801</v>
+        <v>1038.7448084301</v>
       </c>
       <c r="D10" t="n">
-        <v>953.884076417194</v>
+        <v>909.46456557637</v>
       </c>
       <c r="E10" t="n">
-        <v>1816.56127143122</v>
+        <v>1793.79264620179</v>
       </c>
       <c r="F10" t="n">
-        <v>2108.59365748894</v>
+        <v>2100.95288958487</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>1335</v>
       </c>
       <c r="I10" t="n">
-        <v>55.5516227887636</v>
+        <v>17.3368916084385</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>1278.49656979688</v>
+        <v>1252.14437357309</v>
       </c>
       <c r="C11" t="n">
-        <v>988.820908545795</v>
+        <v>954.480807838937</v>
       </c>
       <c r="D11" t="n">
-        <v>868.637406830952</v>
+        <v>832.641420738447</v>
       </c>
       <c r="E11" t="n">
-        <v>1682.57305417432</v>
+        <v>1675.49683926994</v>
       </c>
       <c r="F11" t="n">
-        <v>1961.58344668335</v>
+        <v>1972.59693935757</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>1181</v>
       </c>
       <c r="I11" t="n">
-        <v>97.4965697968837</v>
+        <v>71.1443735730893</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>1303.58944415523</v>
+        <v>1291.9476351035</v>
       </c>
       <c r="C12" t="n">
-        <v>995.926653563258</v>
+        <v>971.08265199074</v>
       </c>
       <c r="D12" t="n">
-        <v>869.746305768565</v>
+        <v>841.469448856945</v>
       </c>
       <c r="E12" t="n">
-        <v>1739.91358046335</v>
+        <v>1757.06125373405</v>
       </c>
       <c r="F12" t="n">
-        <v>2045.37687462254</v>
+        <v>2088.71836815917</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>1243</v>
       </c>
       <c r="I12" t="n">
-        <v>60.5894441552277</v>
+        <v>48.9476351034962</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>1287.44942694232</v>
+        <v>1294.19832439891</v>
       </c>
       <c r="C13" t="n">
-        <v>974.061600971524</v>
+        <v>961.573264321009</v>
       </c>
       <c r="D13" t="n">
-        <v>846.705083366157</v>
+        <v>828.662624440965</v>
       </c>
       <c r="E13" t="n">
-        <v>1737.78401760772</v>
+        <v>1784.00597981351</v>
       </c>
       <c r="F13" t="n">
-        <v>2056.55202022697</v>
+        <v>2137.93325123142</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>1196</v>
       </c>
       <c r="I13" t="n">
-        <v>91.4494269423235</v>
+        <v>98.1983243989071</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>1125.16468517844</v>
+        <v>1128.51323808218</v>
       </c>
       <c r="C14" t="n">
-        <v>850.550788087517</v>
+        <v>837.636953031885</v>
       </c>
       <c r="D14" t="n">
-        <v>739.041307870381</v>
+        <v>721.512587698261</v>
       </c>
       <c r="E14" t="n">
-        <v>1520.23970467432</v>
+        <v>1557.40161747087</v>
       </c>
       <c r="F14" t="n">
-        <v>1800.16474238569</v>
+        <v>1867.65043781504</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>960</v>
       </c>
       <c r="I14" t="n">
-        <v>165.164685178435</v>
+        <v>168.513238082181</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>1058.83639040284</v>
+        <v>1054.61948731448</v>
       </c>
       <c r="C15" t="n">
-        <v>796.235746854776</v>
+        <v>778.684190395686</v>
       </c>
       <c r="D15" t="n">
-        <v>690.12722654185</v>
+        <v>669.064454746486</v>
       </c>
       <c r="E15" t="n">
-        <v>1439.31624113189</v>
+        <v>1464.39097292883</v>
       </c>
       <c r="F15" t="n">
-        <v>1710.51002223199</v>
+        <v>1762.60414432534</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>745</v>
       </c>
       <c r="I15" t="n">
-        <v>313.836390402843</v>
+        <v>309.619487314479</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>1352.08902255849</v>
+        <v>1329.50788044761</v>
       </c>
       <c r="C16" t="n">
-        <v>989.783366838902</v>
+        <v>954.877137739496</v>
       </c>
       <c r="D16" t="n">
-        <v>847.037826302125</v>
+        <v>809.867448434367</v>
       </c>
       <c r="E16" t="n">
-        <v>1896.62026714597</v>
+        <v>1907.38231003102</v>
       </c>
       <c r="F16" t="n">
-        <v>2296.94204218779</v>
+        <v>2341.73496662386</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>1128</v>
       </c>
       <c r="I16" t="n">
-        <v>224.089022558485</v>
+        <v>201.507880447606</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>1267.87144008522</v>
+        <v>1258.33174612632</v>
       </c>
       <c r="C17" t="n">
-        <v>924.177960653649</v>
+        <v>898.847536744724</v>
       </c>
       <c r="D17" t="n">
-        <v>789.306986349567</v>
+        <v>760.406740880056</v>
       </c>
       <c r="E17" t="n">
-        <v>1787.4589064585</v>
+        <v>1817.00633282556</v>
       </c>
       <c r="F17" t="n">
-        <v>2171.34422288825</v>
+        <v>2239.62244754438</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>1142</v>
       </c>
       <c r="I17" t="n">
-        <v>125.871440085217</v>
+        <v>116.331746126317</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>1256.52424186967</v>
+        <v>1235.83946185949</v>
       </c>
       <c r="C18" t="n">
-        <v>908.524904417511</v>
+        <v>875.753031495817</v>
       </c>
       <c r="D18" t="n">
-        <v>772.997010080304</v>
+        <v>738.113656440369</v>
       </c>
       <c r="E18" t="n">
-        <v>1788.49599473969</v>
+        <v>1801.65532098587</v>
       </c>
       <c r="F18" t="n">
-        <v>2185.26265205049</v>
+        <v>2233.73812711271</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>1095</v>
       </c>
       <c r="I18" t="n">
-        <v>161.524241869668</v>
+        <v>140.839461859491</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>1259.11279136345</v>
+        <v>1229.90490560037</v>
       </c>
       <c r="C19" t="n">
-        <v>902.523455194806</v>
+        <v>863.948499868048</v>
       </c>
       <c r="D19" t="n">
-        <v>764.776693746643</v>
+        <v>725.207176361009</v>
       </c>
       <c r="E19" t="n">
-        <v>1810.77003048678</v>
+        <v>1811.9580269264</v>
       </c>
       <c r="F19" t="n">
-        <v>2226.43719804559</v>
+        <v>2261.09636486539</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>1089</v>
       </c>
       <c r="I19" t="n">
-        <v>170.112791363453</v>
+        <v>140.904905600373</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>1370.59119652986</v>
+        <v>1336.37403078089</v>
       </c>
       <c r="C20" t="n">
-        <v>967.495698033236</v>
+        <v>923.693234733479</v>
       </c>
       <c r="D20" t="n">
-        <v>814.00359407553</v>
+        <v>769.588885895225</v>
       </c>
       <c r="E20" t="n">
-        <v>2007.53435145253</v>
+        <v>2007.68099887791</v>
       </c>
       <c r="F20" t="n">
-        <v>2496.2476223719</v>
+        <v>2535.85478442968</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>1038</v>
       </c>
       <c r="I20" t="n">
-        <v>332.591196529862</v>
+        <v>298.374030780894</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>1404.86974030033</v>
+        <v>1364.94589105068</v>
       </c>
       <c r="C21" t="n">
-        <v>981.483987602932</v>
+        <v>933.366582341944</v>
       </c>
       <c r="D21" t="n">
-        <v>821.820673988881</v>
+        <v>773.815988184543</v>
       </c>
       <c r="E21" t="n">
-        <v>2083.54964415392</v>
+        <v>2077.61192203517</v>
       </c>
       <c r="F21" t="n">
-        <v>2610.76318618629</v>
+        <v>2645.67480492217</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>1057</v>
       </c>
       <c r="I21" t="n">
-        <v>347.869740300331</v>
+        <v>307.945891050678</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>1379.30688496535</v>
+        <v>1342.62675372242</v>
       </c>
       <c r="C22" t="n">
-        <v>957.425383844798</v>
+        <v>911.5994392638</v>
       </c>
       <c r="D22" t="n">
-        <v>799.287877807257</v>
+        <v>753.307542337574</v>
       </c>
       <c r="E22" t="n">
-        <v>2061.67724015112</v>
+        <v>2061.50318794846</v>
       </c>
       <c r="F22" t="n">
-        <v>2595.88431009578</v>
+        <v>2639.50266943362</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>1105</v>
       </c>
       <c r="I22" t="n">
-        <v>274.306884965346</v>
+        <v>237.626753722423</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>1268.58240750694</v>
+        <v>1243.50086335496</v>
       </c>
       <c r="C23" t="n">
-        <v>880.186514815241</v>
+        <v>843.261583795818</v>
       </c>
       <c r="D23" t="n">
-        <v>734.659697155904</v>
+        <v>696.440846160901</v>
       </c>
       <c r="E23" t="n">
-        <v>1897.17063466519</v>
+        <v>1912.15161376807</v>
       </c>
       <c r="F23" t="n">
-        <v>2389.52994156744</v>
+        <v>2450.556371053</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>940</v>
       </c>
       <c r="I23" t="n">
-        <v>328.582407506943</v>
+        <v>303.500863354963</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>1293.6420710903</v>
+        <v>1283.1391720295</v>
       </c>
       <c r="C24" t="n">
-        <v>889.298463572601</v>
+        <v>860.59901961752</v>
       </c>
       <c r="D24" t="n">
-        <v>739.103928245043</v>
+        <v>707.187803732285</v>
       </c>
       <c r="E24" t="n">
-        <v>1956.55450106099</v>
+        <v>2000.090760875</v>
       </c>
       <c r="F24" t="n">
-        <v>2481.64377384159</v>
+        <v>2585.2689093634</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>1026</v>
       </c>
       <c r="I24" t="n">
-        <v>267.642071090302</v>
+        <v>257.139172029495</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>1277.8587602664</v>
+        <v>1285.54716226111</v>
       </c>
       <c r="C25" t="n">
-        <v>872.970381826643</v>
+        <v>855.250322257412</v>
       </c>
       <c r="D25" t="n">
-        <v>723.451143726834</v>
+        <v>700.201508894112</v>
       </c>
       <c r="E25" t="n">
-        <v>1947.50060618397</v>
+        <v>2024.06331401317</v>
       </c>
       <c r="F25" t="n">
-        <v>2481.96705296968</v>
+        <v>2632.91845478319</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>1068</v>
       </c>
       <c r="I25" t="n">
-        <v>209.858760266399</v>
+        <v>217.547162261107</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>1117.22836239359</v>
+        <v>1121.36872356919</v>
       </c>
       <c r="C26" t="n">
-        <v>767.121651545259</v>
+        <v>750.149737413489</v>
       </c>
       <c r="D26" t="n">
-        <v>637.216693509574</v>
+        <v>615.691052860294</v>
       </c>
       <c r="E26" t="n">
-        <v>1692.16584899948</v>
+        <v>1753.50030432782</v>
       </c>
       <c r="F26" t="n">
-        <v>2148.22116582682</v>
+        <v>2271.06852873777</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>956</v>
       </c>
       <c r="I26" t="n">
-        <v>161.228362393589</v>
+        <v>165.368723569192</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>1051.63297647715</v>
+        <v>1048.18585152148</v>
       </c>
       <c r="C27" t="n">
-        <v>721.119136817451</v>
+        <v>700.597822894041</v>
       </c>
       <c r="D27" t="n">
-        <v>598.636996618398</v>
+        <v>574.794689871644</v>
       </c>
       <c r="E27" t="n">
-        <v>1595.40937096931</v>
+        <v>1640.76129851896</v>
       </c>
       <c r="F27" t="n">
-        <v>2027.44609673474</v>
+        <v>2126.43338300555</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>830</v>
       </c>
       <c r="I27" t="n">
-        <v>221.632976477145</v>
+        <v>218.185851521483</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>1342.5139895499</v>
+        <v>1321.08683118189</v>
       </c>
       <c r="C28" t="n">
-        <v>893.666357509014</v>
+        <v>856.684454010629</v>
       </c>
       <c r="D28" t="n">
-        <v>731.883208545143</v>
+        <v>693.297110131384</v>
       </c>
       <c r="E28" t="n">
-        <v>2112.44528793668</v>
+        <v>2147.64391714309</v>
       </c>
       <c r="F28" t="n">
-        <v>2746.85108568602</v>
+        <v>2851.27733388446</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>1050</v>
       </c>
       <c r="I28" t="n">
-        <v>292.5139895499</v>
+        <v>271.086831181895</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>1259.21914572701</v>
+        <v>1250.62739888018</v>
       </c>
       <c r="C29" t="n">
-        <v>837.732240822232</v>
+        <v>809.650237938959</v>
       </c>
       <c r="D29" t="n">
-        <v>685.893591848676</v>
+        <v>654.740748024209</v>
       </c>
       <c r="E29" t="n">
-        <v>1982.81216723362</v>
+        <v>2037.32405821955</v>
       </c>
       <c r="F29" t="n">
-        <v>2579.46674908935</v>
+        <v>2708.41027800291</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>896</v>
       </c>
       <c r="I29" t="n">
-        <v>363.219145727006</v>
+        <v>354.627398880176</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>1248.14607260842</v>
+        <v>1228.45745283979</v>
       </c>
       <c r="C30" t="n">
-        <v>825.597587531315</v>
+        <v>791.134616655327</v>
       </c>
       <c r="D30" t="n">
-        <v>674.193269061961</v>
+        <v>638.257583855378</v>
       </c>
       <c r="E30" t="n">
-        <v>1979.49854989505</v>
+        <v>2014.49596721545</v>
       </c>
       <c r="F30" t="n">
-        <v>2586.88446321064</v>
+        <v>2689.48793618526</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>960</v>
       </c>
       <c r="I30" t="n">
-        <v>288.146072608423</v>
+        <v>268.457452839794</v>
       </c>
       <c r="J30" t="s">
         <v>12</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>1250.88727529366</v>
+        <v>1222.71393177276</v>
       </c>
       <c r="C31" t="n">
-        <v>821.871840619315</v>
+        <v>782.362813778855</v>
       </c>
       <c r="D31" t="n">
-        <v>669.111714616512</v>
+        <v>629.35144338773</v>
       </c>
       <c r="E31" t="n">
-        <v>2000.54200328532</v>
+        <v>2021.54878336562</v>
       </c>
       <c r="F31" t="n">
-        <v>2628.37233113703</v>
+        <v>2713.19263661237</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>1038</v>
       </c>
       <c r="I31" t="n">
-        <v>212.887275293662</v>
+        <v>184.713931772758</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>1361.63527843232</v>
+        <v>1328.55655798807</v>
       </c>
       <c r="C32" t="n">
-        <v>881.248189331202</v>
+        <v>836.750071054396</v>
       </c>
       <c r="D32" t="n">
-        <v>712.587161451947</v>
+        <v>668.364450689308</v>
       </c>
       <c r="E32" t="n">
-        <v>2219.27712688982</v>
+        <v>2241.29433988791</v>
       </c>
       <c r="F32" t="n">
-        <v>2951.30841534424</v>
+        <v>3047.79351004923</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>1069</v>
       </c>
       <c r="I32" t="n">
-        <v>292.635278432318</v>
+        <v>259.55655798807</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>1395.82459535499</v>
+        <v>1357.0795727515</v>
       </c>
       <c r="C33" t="n">
-        <v>895.274058111305</v>
+        <v>846.890911410093</v>
       </c>
       <c r="D33" t="n">
-        <v>721.004860371502</v>
+        <v>673.702616003582</v>
       </c>
       <c r="E33" t="n">
-        <v>2301.05438213096</v>
+        <v>2316.60236105247</v>
       </c>
       <c r="F33" t="n">
-        <v>3082.59250484598</v>
+        <v>3174.60833785868</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>1116</v>
       </c>
       <c r="I33" t="n">
-        <v>279.824595354989</v>
+        <v>241.079572751504</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>1370.65037779957</v>
+        <v>1335.07499401675</v>
       </c>
       <c r="C34" t="n">
-        <v>875.277224897356</v>
+        <v>829.07468160852</v>
       </c>
       <c r="D34" t="n">
-        <v>703.515307332463</v>
+        <v>658.091066964883</v>
       </c>
       <c r="E34" t="n">
-        <v>2272.17331591239</v>
+        <v>2293.50544596611</v>
       </c>
       <c r="F34" t="n">
-        <v>3054.88244786186</v>
+        <v>3156.0267657476</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>945</v>
       </c>
       <c r="I34" t="n">
-        <v>425.650377799568</v>
+        <v>390.074994016749</v>
       </c>
       <c r="J34" t="s">
         <v>12</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>1260.94737875379</v>
+        <v>1236.77654546351</v>
       </c>
       <c r="C35" t="n">
-        <v>807.405975444937</v>
+        <v>769.578088613403</v>
       </c>
       <c r="D35" t="n">
-        <v>649.750722008403</v>
+        <v>611.40489413724</v>
       </c>
       <c r="E35" t="n">
-        <v>2083.14142938786</v>
+        <v>2119.09058889969</v>
       </c>
       <c r="F35" t="n">
-        <v>2794.51283332638</v>
+        <v>2910.99665054586</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>752</v>
       </c>
       <c r="I35" t="n">
-        <v>508.947378753791</v>
+        <v>484.77654546351</v>
       </c>
       <c r="J35" t="s">
         <v>12</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>1285.98040551034</v>
+        <v>1276.2858750749</v>
       </c>
       <c r="C36" t="n">
-        <v>816.787459166373</v>
+        <v>786.273444277485</v>
       </c>
       <c r="D36" t="n">
-        <v>654.920050620062</v>
+        <v>621.913210475585</v>
       </c>
       <c r="E36" t="n">
-        <v>2146.50512253204</v>
+        <v>2215.20551443047</v>
       </c>
       <c r="F36" t="n">
-        <v>2898.80137415804</v>
+        <v>3069.00240890676</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>749</v>
       </c>
       <c r="I36" t="n">
-        <v>536.980405510337</v>
+        <v>527.285875074901</v>
       </c>
       <c r="J36" t="s">
         <v>12</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>1270.47033832536</v>
+        <v>1278.81524383894</v>
       </c>
       <c r="C37" t="n">
-        <v>803.225552390599</v>
+        <v>782.663079219506</v>
       </c>
       <c r="D37" t="n">
-        <v>642.721591264277</v>
+        <v>617.259739022224</v>
       </c>
       <c r="E37" t="n">
-        <v>2133.12545500896</v>
+        <v>2238.65079404188</v>
       </c>
       <c r="F37" t="n">
-        <v>2891.76508958302</v>
+        <v>3119.05704253903</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>532</v>
       </c>
       <c r="I37" t="n">
-        <v>738.470338325362</v>
+        <v>746.815243838942</v>
       </c>
       <c r="J37" t="s">
         <v>12</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>1111.11170092797</v>
+        <v>1115.80699595162</v>
       </c>
       <c r="C38" t="n">
-        <v>708.607623946314</v>
+        <v>689.376452840944</v>
       </c>
       <c r="D38" t="n">
-        <v>569.217427498961</v>
+        <v>545.952491306182</v>
       </c>
       <c r="E38" t="n">
-        <v>1845.00683719259</v>
+        <v>1929.42758013641</v>
       </c>
       <c r="F38" t="n">
-        <v>2483.25199442349</v>
+        <v>2666.45080786926</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>523</v>
       </c>
       <c r="I38" t="n">
-        <v>588.111700927974</v>
+        <v>592.806995951624</v>
       </c>
       <c r="J38" t="s">
         <v>12</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>1046.07962684649</v>
+        <v>1043.1762190959</v>
       </c>
       <c r="C39" t="n">
-        <v>667.73136434007</v>
+        <v>645.585089639866</v>
       </c>
       <c r="D39" t="n">
-        <v>536.59701174635</v>
+        <v>511.647190203599</v>
       </c>
       <c r="E39" t="n">
-        <v>1735.04458394252</v>
+        <v>1799.88550848553</v>
       </c>
       <c r="F39" t="n">
-        <v>2333.52958227388</v>
+        <v>2483.81874780303</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>850</v>
       </c>
       <c r="I39" t="n">
-        <v>196.079626846487</v>
+        <v>193.176219095901</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>1335.13457821749</v>
+        <v>1314.53139939359</v>
       </c>
       <c r="C40" t="n">
-        <v>825.037469517428</v>
+        <v>787.154399949815</v>
       </c>
       <c r="D40" t="n">
-        <v>653.505748465133</v>
+        <v>614.876141833271</v>
       </c>
       <c r="E40" t="n">
-        <v>2308.55856079385</v>
+        <v>2367.89990005176</v>
       </c>
       <c r="F40" t="n">
-        <v>3190.39177736845</v>
+        <v>3362.560708782</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>1289</v>
       </c>
       <c r="I40" t="n">
-        <v>46.1345782174899</v>
+        <v>25.5313993935943</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>1252.54896383325</v>
+        <v>1244.62846662854</v>
       </c>
       <c r="C41" t="n">
-        <v>775.279488764846</v>
+        <v>745.725825904927</v>
       </c>
       <c r="D41" t="n">
-        <v>614.540466775288</v>
+        <v>582.657548068824</v>
       </c>
       <c r="E41" t="n">
-        <v>2161.15260316372</v>
+        <v>2240.23719308218</v>
       </c>
       <c r="F41" t="n">
-        <v>2982.49306613058</v>
+        <v>3179.59497618245</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>1114</v>
       </c>
       <c r="I41" t="n">
-        <v>138.54896383325</v>
+        <v>130.628466628543</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>1241.68608777544</v>
+        <v>1222.70854358226</v>
       </c>
       <c r="C42" t="n">
-        <v>765.108691344494</v>
+        <v>729.867427672143</v>
       </c>
       <c r="D42" t="n">
-        <v>605.273503919903</v>
+        <v>569.335950765822</v>
       </c>
       <c r="E42" t="n">
-        <v>2154.91817636102</v>
+        <v>2211.60927962096</v>
       </c>
       <c r="F42" t="n">
-        <v>2985.31863369078</v>
+        <v>3149.30263722468</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>1076</v>
       </c>
       <c r="I42" t="n">
-        <v>165.686087775441</v>
+        <v>146.70854358226</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>1244.5440371734</v>
+        <v>1217.11300130581</v>
       </c>
       <c r="C43" t="n">
-        <v>762.528980261422</v>
+        <v>722.744187499653</v>
       </c>
       <c r="D43" t="n">
-        <v>601.722549975086</v>
+        <v>562.494102034</v>
       </c>
       <c r="E43" t="n">
-        <v>2175.8611345736</v>
+        <v>2216.73057095748</v>
       </c>
       <c r="F43" t="n">
-        <v>3029.05173647494</v>
+        <v>3171.26807047725</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>944</v>
       </c>
       <c r="I43" t="n">
-        <v>300.544037173397</v>
+        <v>273.11300130581</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>1354.72879115474</v>
+        <v>1322.46768085074</v>
       </c>
       <c r="C44" t="n">
-        <v>817.394348880282</v>
+        <v>772.805821103345</v>
       </c>
       <c r="D44" t="n">
-        <v>640.676519277719</v>
+        <v>597.276094734853</v>
       </c>
       <c r="E44" t="n">
-        <v>2416.4909635521</v>
+        <v>2460.65091267826</v>
       </c>
       <c r="F44" t="n">
-        <v>3409.18010928088</v>
+        <v>3571.5063735443</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>1053</v>
       </c>
       <c r="I44" t="n">
-        <v>301.72879115474</v>
+        <v>269.467680850742</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>1388.84855181795</v>
+        <v>1350.95205623883</v>
       </c>
       <c r="C45" t="n">
-        <v>830.990680138928</v>
+        <v>782.812233242842</v>
       </c>
       <c r="D45" t="n">
-        <v>648.947852231897</v>
+        <v>602.80097272252</v>
       </c>
       <c r="E45" t="n">
-        <v>2504.80835087498</v>
+        <v>2542.27472320773</v>
       </c>
       <c r="F45" t="n">
-        <v>3559.92572963142</v>
+        <v>3718.54821585579</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>1111</v>
       </c>
       <c r="I45" t="n">
-        <v>277.848551817955</v>
+        <v>239.952056238827</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>1363.97285834162</v>
+        <v>1329.19159132148</v>
       </c>
       <c r="C46" t="n">
-        <v>813.549602791091</v>
+        <v>767.436432748398</v>
       </c>
       <c r="D46" t="n">
-        <v>634.456597493031</v>
+        <v>590.040350783849</v>
       </c>
       <c r="E46" t="n">
-        <v>2470.15777563851</v>
+        <v>2513.44193567892</v>
       </c>
       <c r="F46" t="n">
-        <v>3520.45226731287</v>
+        <v>3688.52676688782</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>1038</v>
       </c>
       <c r="I46" t="n">
-        <v>325.972858341625</v>
+        <v>291.191591321484</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>1255.05612087325</v>
+        <v>1231.53650751446</v>
       </c>
       <c r="C47" t="n">
-        <v>752.238891405406</v>
+        <v>714.052017303402</v>
       </c>
       <c r="D47" t="n">
-        <v>587.892817075676</v>
+        <v>549.989752135206</v>
       </c>
       <c r="E47" t="n">
-        <v>2258.35498494677</v>
+        <v>2315.57241038986</v>
       </c>
       <c r="F47" t="n">
-        <v>3204.75547270213</v>
+        <v>3384.94089208616</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>986</v>
       </c>
       <c r="I47" t="n">
-        <v>269.05612087325</v>
+        <v>245.536507514463</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>1280.06796052612</v>
+        <v>1270.94493071978</v>
       </c>
       <c r="C48" t="n">
-        <v>761.49342777596</v>
+        <v>729.929581146425</v>
       </c>
       <c r="D48" t="n">
-        <v>593.176569468447</v>
+        <v>559.916959765646</v>
       </c>
       <c r="E48" t="n">
-        <v>2326.30355863113</v>
+        <v>2420.48063292206</v>
       </c>
       <c r="F48" t="n">
-        <v>3323.21092612559</v>
+        <v>3569.45894791138</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>1056</v>
       </c>
       <c r="I48" t="n">
-        <v>224.067960526121</v>
+        <v>214.944930719782</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>1264.76785741642</v>
+        <v>1273.56827904452</v>
       </c>
       <c r="C49" t="n">
-        <v>749.701535519588</v>
+        <v>727.290754885693</v>
       </c>
       <c r="D49" t="n">
-        <v>583.079461778565</v>
+        <v>556.527842686833</v>
       </c>
       <c r="E49" t="n">
-        <v>2309.43096906009</v>
+        <v>2444.19449932163</v>
       </c>
       <c r="F49" t="n">
-        <v>3309.6637962978</v>
+        <v>3623.5201793822</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>975</v>
       </c>
       <c r="I49" t="n">
-        <v>289.767857416417</v>
+        <v>298.568279044525</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>

--- a/outcome/appendix/forecast/Hepatitis A.xlsx
+++ b/outcome/appendix/forecast/Hepatitis A.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>1137.70903515902</v>
+        <v>1135.42440956055</v>
       </c>
       <c r="C2" t="n">
-        <v>1019.16860833852</v>
+        <v>1017.60628935171</v>
       </c>
       <c r="D2" t="n">
-        <v>962.659695668637</v>
+        <v>961.419180947432</v>
       </c>
       <c r="E2" t="n">
-        <v>1274.0014507962</v>
+        <v>1270.81205249033</v>
       </c>
       <c r="F2" t="n">
-        <v>1354.43196704166</v>
+        <v>1350.673599193</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>1251</v>
       </c>
       <c r="I2" t="n">
-        <v>-113.290964840975</v>
+        <v>-115.575590439451</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>1062.89756111155</v>
+        <v>1065.17277836909</v>
       </c>
       <c r="C3" t="n">
-        <v>928.981418825819</v>
+        <v>934.015643505527</v>
       </c>
       <c r="D3" t="n">
-        <v>866.615893550182</v>
+        <v>872.75000173076</v>
       </c>
       <c r="E3" t="n">
-        <v>1221.84377014876</v>
+        <v>1220.20083964161</v>
       </c>
       <c r="F3" t="n">
-        <v>1318.04789009047</v>
+        <v>1313.72299844471</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>1295</v>
       </c>
       <c r="I3" t="n">
-        <v>-232.102438888454</v>
+        <v>-229.827221630906</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>1340.34678255512</v>
+        <v>1352.15800652435</v>
       </c>
       <c r="C4" t="n">
-        <v>1135.66048783977</v>
+        <v>1151.85109361124</v>
       </c>
       <c r="D4" t="n">
-        <v>1043.09972012856</v>
+        <v>1060.81382193437</v>
       </c>
       <c r="E4" t="n">
-        <v>1593.32058832186</v>
+        <v>1598.00174547754</v>
       </c>
       <c r="F4" t="n">
-        <v>1751.49426639246</v>
+        <v>1750.8550299992</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>1529</v>
       </c>
       <c r="I4" t="n">
-        <v>-188.653217444883</v>
+        <v>-176.841993475653</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>1268.24515699319</v>
+        <v>1274.41315839648</v>
       </c>
       <c r="C5" t="n">
-        <v>1055.78148067738</v>
+        <v>1068.57942351231</v>
       </c>
       <c r="D5" t="n">
-        <v>961.291210318595</v>
+        <v>976.419897375464</v>
       </c>
       <c r="E5" t="n">
-        <v>1536.97084791807</v>
+        <v>1532.32755368967</v>
       </c>
       <c r="F5" t="n">
-        <v>1708.16844624487</v>
+        <v>1695.39274106901</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>1187</v>
       </c>
       <c r="I5" t="n">
-        <v>81.2451569931929</v>
+        <v>87.4131583964809</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>1245.33607415256</v>
+        <v>1256.54308018891</v>
       </c>
       <c r="C6" t="n">
-        <v>1019.32552325633</v>
+        <v>1037.20555152553</v>
       </c>
       <c r="D6" t="n">
-        <v>920.402059808449</v>
+        <v>940.444048892663</v>
       </c>
       <c r="E6" t="n">
-        <v>1537.63558161464</v>
+        <v>1537.10353877702</v>
       </c>
       <c r="F6" t="n">
-        <v>1727.261605154</v>
+        <v>1717.48293229583</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>1100</v>
       </c>
       <c r="I6" t="n">
-        <v>145.336074152558</v>
+        <v>156.543080188907</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>1239.15408150099</v>
+        <v>1256.96043052624</v>
       </c>
       <c r="C7" t="n">
-        <v>998.241554320872</v>
+        <v>1022.15897332136</v>
       </c>
       <c r="D7" t="n">
-        <v>894.367243451144</v>
+        <v>920.026756607503</v>
       </c>
       <c r="E7" t="n">
-        <v>1557.36481111775</v>
+        <v>1563.28995661384</v>
       </c>
       <c r="F7" t="n">
-        <v>1767.39641947335</v>
+        <v>1763.43795084832</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,10 +608,10 @@
         <v>1249</v>
       </c>
       <c r="I7" t="n">
-        <v>-9.84591849900812</v>
+        <v>7.96043052623872</v>
       </c>
       <c r="J7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>1346.42907091483</v>
+        <v>1375.02607066374</v>
       </c>
       <c r="C8" t="n">
-        <v>1063.52900771871</v>
+        <v>1097.41212149921</v>
       </c>
       <c r="D8" t="n">
-        <v>943.792908355006</v>
+        <v>978.773270319821</v>
       </c>
       <c r="E8" t="n">
-        <v>1730.02327208026</v>
+        <v>1746.33532904181</v>
       </c>
       <c r="F8" t="n">
-        <v>1988.73888641554</v>
+        <v>1993.9479140827</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>1401</v>
       </c>
       <c r="I8" t="n">
-        <v>-54.5709290851657</v>
+        <v>-25.9739293362636</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>1375.0625014974</v>
+        <v>1415.57160565846</v>
       </c>
       <c r="C9" t="n">
-        <v>1069.40174435463</v>
+        <v>1113.0113018426</v>
       </c>
       <c r="D9" t="n">
-        <v>941.910904678059</v>
+        <v>985.519930978181</v>
       </c>
       <c r="E9" t="n">
-        <v>1798.22989384746</v>
+        <v>1828.40027289772</v>
       </c>
       <c r="F9" t="n">
-        <v>2088.59975036333</v>
+        <v>2108.27388520431</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,10 +672,10 @@
         <v>1401</v>
       </c>
       <c r="I9" t="n">
-        <v>-25.937498502605</v>
+        <v>14.5716056584583</v>
       </c>
       <c r="J9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>1352.33689160844</v>
+        <v>1384.57041573067</v>
       </c>
       <c r="C10" t="n">
-        <v>1038.7448084301</v>
+        <v>1076.4853096718</v>
       </c>
       <c r="D10" t="n">
-        <v>909.46456557637</v>
+        <v>948.030733537676</v>
       </c>
       <c r="E10" t="n">
-        <v>1793.79264620179</v>
+        <v>1811.30757272457</v>
       </c>
       <c r="F10" t="n">
-        <v>2100.95288958487</v>
+        <v>2104.24254207045</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>1335</v>
       </c>
       <c r="I10" t="n">
-        <v>17.3368916084385</v>
+        <v>49.5704157306745</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>1252.14437357309</v>
+        <v>1267.87708339589</v>
       </c>
       <c r="C11" t="n">
-        <v>954.480807838937</v>
+        <v>979.56941574165</v>
       </c>
       <c r="D11" t="n">
-        <v>832.641420738447</v>
+        <v>860.071115999332</v>
       </c>
       <c r="E11" t="n">
-        <v>1675.49683926994</v>
+        <v>1670.61241719563</v>
       </c>
       <c r="F11" t="n">
-        <v>1972.59693935757</v>
+        <v>1949.02396296213</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>1181</v>
       </c>
       <c r="I11" t="n">
-        <v>71.1443735730893</v>
+        <v>86.8770833958879</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>1291.9476351035</v>
+        <v>1301.82926647072</v>
       </c>
       <c r="C12" t="n">
-        <v>971.08265199074</v>
+        <v>992.995269651348</v>
       </c>
       <c r="D12" t="n">
-        <v>841.469448856945</v>
+        <v>866.522962253276</v>
       </c>
       <c r="E12" t="n">
-        <v>1757.06125373405</v>
+        <v>1740.75276187091</v>
       </c>
       <c r="F12" t="n">
-        <v>2088.71836815917</v>
+        <v>2048.5871685165</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>1243</v>
       </c>
       <c r="I12" t="n">
-        <v>48.9476351034962</v>
+        <v>58.8292664707242</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>1294.19832439891</v>
+        <v>1289.49375715036</v>
       </c>
       <c r="C13" t="n">
-        <v>961.573264321009</v>
+        <v>973.77800643124</v>
       </c>
       <c r="D13" t="n">
-        <v>828.662624440965</v>
+        <v>845.699935987859</v>
       </c>
       <c r="E13" t="n">
-        <v>1784.00597981351</v>
+        <v>1744.32139444409</v>
       </c>
       <c r="F13" t="n">
-        <v>2137.93325123142</v>
+        <v>2066.95415261468</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>1196</v>
       </c>
       <c r="I13" t="n">
-        <v>98.1983243989071</v>
+        <v>93.493757150364</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>1128.51323808218</v>
+        <v>1125.44182574377</v>
       </c>
       <c r="C14" t="n">
-        <v>837.636953031885</v>
+        <v>849.218350819447</v>
       </c>
       <c r="D14" t="n">
-        <v>721.512587698261</v>
+        <v>737.244421281475</v>
       </c>
       <c r="E14" t="n">
-        <v>1557.40161747087</v>
+        <v>1523.80175581205</v>
       </c>
       <c r="F14" t="n">
-        <v>1867.65043781504</v>
+        <v>1806.63288720815</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>960</v>
       </c>
       <c r="I14" t="n">
-        <v>168.513238082181</v>
+        <v>165.441825743775</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>1054.61948731448</v>
+        <v>1056.14200489406</v>
       </c>
       <c r="C15" t="n">
-        <v>778.684190395686</v>
+        <v>792.882506414386</v>
       </c>
       <c r="D15" t="n">
-        <v>669.064454746486</v>
+        <v>686.672710579627</v>
       </c>
       <c r="E15" t="n">
-        <v>1464.39097292883</v>
+        <v>1438.43366584191</v>
       </c>
       <c r="F15" t="n">
-        <v>1762.60414432534</v>
+        <v>1711.43452651683</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>745</v>
       </c>
       <c r="I15" t="n">
-        <v>309.619487314479</v>
+        <v>311.142004894064</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>1329.50788044761</v>
+        <v>1340.23667766754</v>
       </c>
       <c r="C16" t="n">
-        <v>954.877137739496</v>
+        <v>979.771333530939</v>
       </c>
       <c r="D16" t="n">
-        <v>809.867448434367</v>
+        <v>837.930165238765</v>
       </c>
       <c r="E16" t="n">
-        <v>1907.38231003102</v>
+        <v>1883.00376517694</v>
       </c>
       <c r="F16" t="n">
-        <v>2341.73496662386</v>
+        <v>2282.65616888097</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>1128</v>
       </c>
       <c r="I16" t="n">
-        <v>201.507880447606</v>
+        <v>212.236677667544</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>1258.33174612632</v>
+        <v>1263.56560810644</v>
       </c>
       <c r="C17" t="n">
-        <v>898.847536744724</v>
+        <v>919.374122043763</v>
       </c>
       <c r="D17" t="n">
-        <v>760.406740880056</v>
+        <v>784.534558499791</v>
       </c>
       <c r="E17" t="n">
-        <v>1817.00633282556</v>
+        <v>1785.18792206894</v>
       </c>
       <c r="F17" t="n">
-        <v>2239.62244754438</v>
+        <v>2171.38504293103</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>1142</v>
       </c>
       <c r="I17" t="n">
-        <v>116.331746126317</v>
+        <v>121.565608106436</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>1235.83946185949</v>
+        <v>1246.10049490067</v>
       </c>
       <c r="C18" t="n">
-        <v>875.753031495817</v>
+        <v>899.655862151212</v>
       </c>
       <c r="D18" t="n">
-        <v>738.113656440369</v>
+        <v>764.91813602702</v>
       </c>
       <c r="E18" t="n">
-        <v>1801.65532098587</v>
+        <v>1776.76252051431</v>
       </c>
       <c r="F18" t="n">
-        <v>2233.73812711271</v>
+        <v>2173.23343479301</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>1095</v>
       </c>
       <c r="I18" t="n">
-        <v>140.839461859491</v>
+        <v>151.100494900672</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>1229.90490560037</v>
+        <v>1246.72450942516</v>
       </c>
       <c r="C19" t="n">
-        <v>863.948499868048</v>
+        <v>892.3906256197</v>
       </c>
       <c r="D19" t="n">
-        <v>725.207176361009</v>
+        <v>755.692508267378</v>
       </c>
       <c r="E19" t="n">
-        <v>1811.9580269264</v>
+        <v>1795.94163060951</v>
       </c>
       <c r="F19" t="n">
-        <v>2261.09636486539</v>
+        <v>2210.44900722722</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>1089</v>
       </c>
       <c r="I19" t="n">
-        <v>140.904905600373</v>
+        <v>157.724509425157</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>1336.37403078089</v>
+        <v>1363.80624185591</v>
       </c>
       <c r="C20" t="n">
-        <v>923.693234733479</v>
+        <v>960.891660123915</v>
       </c>
       <c r="D20" t="n">
-        <v>769.588885895225</v>
+        <v>807.736754511268</v>
       </c>
       <c r="E20" t="n">
-        <v>2007.68099887791</v>
+        <v>2002.11773122426</v>
       </c>
       <c r="F20" t="n">
-        <v>2535.85478442968</v>
+        <v>2492.97685881737</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>1038</v>
       </c>
       <c r="I20" t="n">
-        <v>298.374030780894</v>
+        <v>325.806241855906</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>1364.94589105068</v>
+        <v>1404.17185167076</v>
       </c>
       <c r="C21" t="n">
-        <v>933.366582341944</v>
+        <v>978.70892721068</v>
       </c>
       <c r="D21" t="n">
-        <v>773.815988184543</v>
+        <v>818.609921275414</v>
       </c>
       <c r="E21" t="n">
-        <v>2077.61192203517</v>
+        <v>2088.38628457296</v>
       </c>
       <c r="F21" t="n">
-        <v>2645.67480492217</v>
+        <v>2621.38404255033</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>1057</v>
       </c>
       <c r="I21" t="n">
-        <v>307.945891050678</v>
+        <v>347.171851670755</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>1342.62675372242</v>
+        <v>1373.7057816202</v>
       </c>
       <c r="C22" t="n">
-        <v>911.5994392638</v>
+        <v>951.56777879624</v>
       </c>
       <c r="D22" t="n">
-        <v>753.307542337574</v>
+        <v>793.637266559083</v>
       </c>
       <c r="E22" t="n">
-        <v>2061.50318794846</v>
+        <v>2058.44764611883</v>
       </c>
       <c r="F22" t="n">
-        <v>2639.50266943362</v>
+        <v>2595.84217897061</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>1105</v>
       </c>
       <c r="I22" t="n">
-        <v>237.626753722423</v>
+        <v>268.7057816202</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>1243.50086335496</v>
+        <v>1258.34109228393</v>
       </c>
       <c r="C23" t="n">
-        <v>843.261583795818</v>
+        <v>871.577999089233</v>
       </c>
       <c r="D23" t="n">
-        <v>696.440846160901</v>
+        <v>726.893454976214</v>
       </c>
       <c r="E23" t="n">
-        <v>1912.15161376807</v>
+        <v>1885.7761888223</v>
       </c>
       <c r="F23" t="n">
-        <v>2450.556371053</v>
+        <v>2378.24597560445</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>940</v>
       </c>
       <c r="I23" t="n">
-        <v>303.500863354963</v>
+        <v>318.341092283928</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>1283.1391720295</v>
+        <v>1292.17224955413</v>
       </c>
       <c r="C24" t="n">
-        <v>860.59901961752</v>
+        <v>886.160643311494</v>
       </c>
       <c r="D24" t="n">
-        <v>707.187803732285</v>
+        <v>735.681397474429</v>
       </c>
       <c r="E24" t="n">
-        <v>2000.090760875</v>
+        <v>1960.03910526141</v>
       </c>
       <c r="F24" t="n">
-        <v>2585.2689093634</v>
+        <v>2490.58611361698</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>1026</v>
       </c>
       <c r="I24" t="n">
-        <v>257.139172029495</v>
+        <v>266.172249554128</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>1285.54716226111</v>
+        <v>1280.1438063467</v>
       </c>
       <c r="C25" t="n">
-        <v>855.250322257412</v>
+        <v>872.165495797964</v>
       </c>
       <c r="D25" t="n">
-        <v>700.201508894112</v>
+        <v>721.88325577819</v>
       </c>
       <c r="E25" t="n">
-        <v>2024.06331401317</v>
+        <v>1957.44590736081</v>
       </c>
       <c r="F25" t="n">
-        <v>2632.91845478319</v>
+        <v>2499.80556933986</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>1068</v>
       </c>
       <c r="I25" t="n">
-        <v>217.547162261107</v>
+        <v>212.143806346696</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>1121.36872356919</v>
+        <v>1117.71350355618</v>
       </c>
       <c r="C26" t="n">
-        <v>750.149737413489</v>
+        <v>765.493931754718</v>
       </c>
       <c r="D26" t="n">
-        <v>615.691052860294</v>
+        <v>635.114058461501</v>
       </c>
       <c r="E26" t="n">
-        <v>1753.50030432782</v>
+        <v>1698.17606748546</v>
       </c>
       <c r="F26" t="n">
-        <v>2271.06852873777</v>
+        <v>2160.03661935218</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>956</v>
       </c>
       <c r="I26" t="n">
-        <v>165.368723569192</v>
+        <v>161.713503556177</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>1048.18585152148</v>
+        <v>1049.14809295783</v>
       </c>
       <c r="C27" t="n">
-        <v>700.597822894041</v>
+        <v>717.749843934926</v>
       </c>
       <c r="D27" t="n">
-        <v>574.794689871644</v>
+        <v>595.202447837793</v>
       </c>
       <c r="E27" t="n">
-        <v>1640.76129851896</v>
+        <v>1596.13146382976</v>
       </c>
       <c r="F27" t="n">
-        <v>2126.43338300555</v>
+        <v>2031.93107868553</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>830</v>
       </c>
       <c r="I27" t="n">
-        <v>218.185851521483</v>
+        <v>219.148092957831</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>1321.08683118189</v>
+        <v>1331.00767275086</v>
       </c>
       <c r="C28" t="n">
-        <v>856.684454010629</v>
+        <v>884.345196652445</v>
       </c>
       <c r="D28" t="n">
-        <v>693.297110131384</v>
+        <v>723.628281714628</v>
       </c>
       <c r="E28" t="n">
-        <v>2147.64391714309</v>
+        <v>2099.20824421405</v>
       </c>
       <c r="F28" t="n">
-        <v>2851.27733388446</v>
+        <v>2733.65480985841</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>1050</v>
       </c>
       <c r="I28" t="n">
-        <v>271.086831181895</v>
+        <v>281.007672750862</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>1250.62739888018</v>
+        <v>1255.16500525961</v>
       </c>
       <c r="C29" t="n">
-        <v>809.650237938959</v>
+        <v>833.025506055332</v>
       </c>
       <c r="D29" t="n">
-        <v>654.740748024209</v>
+        <v>681.290050783382</v>
       </c>
       <c r="E29" t="n">
-        <v>2037.32405821955</v>
+        <v>1982.33209309053</v>
       </c>
       <c r="F29" t="n">
-        <v>2708.41027800291</v>
+        <v>2583.71962752429</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>896</v>
       </c>
       <c r="I29" t="n">
-        <v>354.627398880176</v>
+        <v>359.165005259612</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>1228.45745283979</v>
+        <v>1238.01167999133</v>
       </c>
       <c r="C30" t="n">
-        <v>791.134616655327</v>
+        <v>817.29389320323</v>
       </c>
       <c r="D30" t="n">
-        <v>638.257583855378</v>
+        <v>666.816920242857</v>
       </c>
       <c r="E30" t="n">
-        <v>2014.49596721545</v>
+        <v>1968.19549976237</v>
       </c>
       <c r="F30" t="n">
-        <v>2689.48793618526</v>
+        <v>2576.07984792964</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>960</v>
       </c>
       <c r="I30" t="n">
-        <v>268.457452839794</v>
+        <v>278.011679991329</v>
       </c>
       <c r="J30" t="s">
         <v>12</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>1222.71393177276</v>
+        <v>1238.79428888649</v>
       </c>
       <c r="C31" t="n">
-        <v>782.362813778855</v>
+        <v>812.437795061599</v>
       </c>
       <c r="D31" t="n">
-        <v>629.35144338773</v>
+        <v>660.879827941101</v>
       </c>
       <c r="E31" t="n">
-        <v>2021.54878336562</v>
+        <v>1985.72030858407</v>
       </c>
       <c r="F31" t="n">
-        <v>2713.19263661237</v>
+        <v>2612.68926612729</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>1038</v>
       </c>
       <c r="I31" t="n">
-        <v>184.713931772758</v>
+        <v>200.794288886485</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>1328.55655798807</v>
+        <v>1355.11390432982</v>
       </c>
       <c r="C32" t="n">
-        <v>836.750071054396</v>
+        <v>874.923636700646</v>
       </c>
       <c r="D32" t="n">
-        <v>668.364450689308</v>
+        <v>706.705215933866</v>
       </c>
       <c r="E32" t="n">
-        <v>2241.29433988791</v>
+        <v>2215.32839873578</v>
       </c>
       <c r="F32" t="n">
-        <v>3047.79351004923</v>
+        <v>2951.78127445909</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>1069</v>
       </c>
       <c r="I32" t="n">
-        <v>259.55655798807</v>
+        <v>286.113904329816</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>1357.0795727515</v>
+        <v>1395.33906439105</v>
       </c>
       <c r="C33" t="n">
-        <v>846.890911410093</v>
+        <v>892.352340740353</v>
       </c>
       <c r="D33" t="n">
-        <v>673.702616003582</v>
+        <v>717.707448849259</v>
       </c>
       <c r="E33" t="n">
-        <v>2316.60236105247</v>
+        <v>2308.76814092988</v>
       </c>
       <c r="F33" t="n">
-        <v>3174.60833785868</v>
+        <v>3100.31684876568</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>1116</v>
       </c>
       <c r="I33" t="n">
-        <v>241.079572751504</v>
+        <v>279.339064391051</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>1335.07499401675</v>
+        <v>1365.28566987119</v>
       </c>
       <c r="C34" t="n">
-        <v>829.07468160852</v>
+        <v>869.616737575836</v>
       </c>
       <c r="D34" t="n">
-        <v>658.091066964883</v>
+        <v>698.159002083767</v>
       </c>
       <c r="E34" t="n">
-        <v>2293.50544596611</v>
+        <v>2270.65229980704</v>
       </c>
       <c r="F34" t="n">
-        <v>3156.0267657476</v>
+        <v>3059.27098826333</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>945</v>
       </c>
       <c r="I34" t="n">
-        <v>390.074994016749</v>
+        <v>420.28566987119</v>
       </c>
       <c r="J34" t="s">
         <v>12</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>1236.77654546351</v>
+        <v>1250.94798059844</v>
       </c>
       <c r="C35" t="n">
-        <v>769.578088613403</v>
+        <v>799.303236194804</v>
       </c>
       <c r="D35" t="n">
-        <v>611.40489413724</v>
+        <v>642.613783551504</v>
       </c>
       <c r="E35" t="n">
-        <v>2119.09058889969</v>
+        <v>2072.17573781662</v>
       </c>
       <c r="F35" t="n">
-        <v>2910.99665054586</v>
+        <v>2784.62607006902</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>752</v>
       </c>
       <c r="I35" t="n">
-        <v>484.77654546351</v>
+        <v>498.947980598443</v>
       </c>
       <c r="J35" t="s">
         <v>12</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>1276.2858750749</v>
+        <v>1284.68444207644</v>
       </c>
       <c r="C36" t="n">
-        <v>786.273444277485</v>
+        <v>813.591403348115</v>
       </c>
       <c r="D36" t="n">
-        <v>621.913210475585</v>
+        <v>651.504848218969</v>
       </c>
       <c r="E36" t="n">
-        <v>2215.20551443047</v>
+        <v>2152.29456316768</v>
       </c>
       <c r="F36" t="n">
-        <v>3069.00240890676</v>
+        <v>2913.61302501414</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>749</v>
       </c>
       <c r="I36" t="n">
-        <v>527.285875074901</v>
+        <v>535.684442076436</v>
       </c>
       <c r="J36" t="s">
         <v>12</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>1278.81524383894</v>
+        <v>1272.89273113714</v>
       </c>
       <c r="C37" t="n">
-        <v>782.663079219506</v>
+        <v>802.138936589496</v>
       </c>
       <c r="D37" t="n">
-        <v>617.259739022224</v>
+        <v>640.915614984821</v>
       </c>
       <c r="E37" t="n">
-        <v>2238.65079404188</v>
+        <v>2146.08945631911</v>
       </c>
       <c r="F37" t="n">
-        <v>3119.05704253903</v>
+        <v>2917.21633446936</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>532</v>
       </c>
       <c r="I37" t="n">
-        <v>746.815243838942</v>
+        <v>740.892731137142</v>
       </c>
       <c r="J37" t="s">
         <v>12</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>1115.80699595162</v>
+        <v>1111.71745328912</v>
       </c>
       <c r="C38" t="n">
-        <v>689.376452840944</v>
+        <v>706.829828049418</v>
       </c>
       <c r="D38" t="n">
-        <v>545.952491306182</v>
+        <v>567.00873682926</v>
       </c>
       <c r="E38" t="n">
-        <v>1929.42758013641</v>
+        <v>1853.1773804792</v>
       </c>
       <c r="F38" t="n">
-        <v>2666.45080786926</v>
+        <v>2500.51272690975</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>523</v>
       </c>
       <c r="I38" t="n">
-        <v>592.806995951624</v>
+        <v>588.717453289123</v>
       </c>
       <c r="J38" t="s">
         <v>12</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>1043.1762190959</v>
+        <v>1043.72034881099</v>
       </c>
       <c r="C39" t="n">
-        <v>645.585089639866</v>
+        <v>664.394185185265</v>
       </c>
       <c r="D39" t="n">
-        <v>511.647190203599</v>
+        <v>533.253208192236</v>
       </c>
       <c r="E39" t="n">
-        <v>1799.88550848553</v>
+        <v>1737.16995033909</v>
       </c>
       <c r="F39" t="n">
-        <v>2483.81874780303</v>
+        <v>2341.65662817789</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>850</v>
       </c>
       <c r="I39" t="n">
-        <v>193.176219095901</v>
+        <v>193.720348810987</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>1314.53139939359</v>
+        <v>1323.8474663711</v>
       </c>
       <c r="C40" t="n">
-        <v>787.154399949815</v>
+        <v>816.251076630164</v>
       </c>
       <c r="D40" t="n">
-        <v>614.876141833271</v>
+        <v>645.907601683972</v>
       </c>
       <c r="E40" t="n">
-        <v>2367.89990005176</v>
+        <v>2295.59422517531</v>
       </c>
       <c r="F40" t="n">
-        <v>3362.560708782</v>
+        <v>3178.45275059209</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>1289</v>
       </c>
       <c r="I40" t="n">
-        <v>25.5313993935943</v>
+        <v>34.8474663711047</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>1244.62846662854</v>
+        <v>1248.64576689345</v>
       </c>
       <c r="C41" t="n">
-        <v>745.725825904927</v>
+        <v>770.685443446764</v>
       </c>
       <c r="D41" t="n">
-        <v>582.657548068824</v>
+        <v>610.1314654722</v>
       </c>
       <c r="E41" t="n">
-        <v>2240.23719308218</v>
+        <v>2162.26969555468</v>
       </c>
       <c r="F41" t="n">
-        <v>3179.59497618245</v>
+        <v>2991.1868496129</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>1114</v>
       </c>
       <c r="I41" t="n">
-        <v>130.628466628543</v>
+        <v>134.645766893451</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>1222.70854358226</v>
+        <v>1231.73329812568</v>
       </c>
       <c r="C42" t="n">
-        <v>729.867427672143</v>
+        <v>757.247759180897</v>
       </c>
       <c r="D42" t="n">
-        <v>569.335950765822</v>
+        <v>598.446611397917</v>
       </c>
       <c r="E42" t="n">
-        <v>2211.60927962096</v>
+        <v>2143.94331576633</v>
       </c>
       <c r="F42" t="n">
-        <v>3149.30263722468</v>
+        <v>2975.88181209473</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>1076</v>
       </c>
       <c r="I42" t="n">
-        <v>146.70854358226</v>
+        <v>155.733298125682</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>1217.11300130581</v>
+        <v>1232.63810514441</v>
       </c>
       <c r="C43" t="n">
-        <v>722.744187499653</v>
+        <v>753.633913443288</v>
       </c>
       <c r="D43" t="n">
-        <v>562.494102034</v>
+        <v>594.142146989602</v>
       </c>
       <c r="E43" t="n">
-        <v>2216.73057095748</v>
+        <v>2160.96936811033</v>
       </c>
       <c r="F43" t="n">
-        <v>3171.26807047725</v>
+        <v>3013.78682504389</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>944</v>
       </c>
       <c r="I43" t="n">
-        <v>273.11300130581</v>
+        <v>288.638105144413</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>1322.46768085074</v>
+        <v>1348.36619029968</v>
       </c>
       <c r="C44" t="n">
-        <v>772.805821103345</v>
+        <v>811.308692302648</v>
       </c>
       <c r="D44" t="n">
-        <v>597.276094734853</v>
+        <v>635.130742932374</v>
       </c>
       <c r="E44" t="n">
-        <v>2460.65091267826</v>
+        <v>2413.85933430336</v>
       </c>
       <c r="F44" t="n">
-        <v>3571.5063735443</v>
+        <v>3413.70144961871</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>1053</v>
       </c>
       <c r="I44" t="n">
-        <v>269.467680850742</v>
+        <v>295.366190299679</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>1350.95205623883</v>
+        <v>1388.48168256166</v>
       </c>
       <c r="C45" t="n">
-        <v>782.812233242842</v>
+        <v>827.996275656043</v>
       </c>
       <c r="D45" t="n">
-        <v>602.80097272252</v>
+        <v>645.659197159892</v>
       </c>
       <c r="E45" t="n">
-        <v>2542.27472320773</v>
+        <v>2515.19658221259</v>
       </c>
       <c r="F45" t="n">
-        <v>3718.54821585579</v>
+        <v>3585.26355075264</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>1111</v>
       </c>
       <c r="I45" t="n">
-        <v>239.952056238827</v>
+        <v>277.481682561656</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>1329.19159132148</v>
+        <v>1358.74749246022</v>
       </c>
       <c r="C46" t="n">
-        <v>767.436432748398</v>
+        <v>808.06479686316</v>
       </c>
       <c r="D46" t="n">
-        <v>590.040350783849</v>
+        <v>629.369097921522</v>
       </c>
       <c r="E46" t="n">
-        <v>2513.44193567892</v>
+        <v>2470.19859915825</v>
       </c>
       <c r="F46" t="n">
-        <v>3688.52676688782</v>
+        <v>3529.63972369664</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>1038</v>
       </c>
       <c r="I46" t="n">
-        <v>291.191591321484</v>
+        <v>320.747492460221</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>1231.53650751446</v>
+        <v>1245.20562899077</v>
       </c>
       <c r="C47" t="n">
-        <v>714.052017303402</v>
+        <v>744.537002145175</v>
       </c>
       <c r="D47" t="n">
-        <v>549.989752135206</v>
+        <v>581.254476606679</v>
       </c>
       <c r="E47" t="n">
-        <v>2315.57241038986</v>
+        <v>2247.72674828911</v>
       </c>
       <c r="F47" t="n">
-        <v>3384.94089208616</v>
+        <v>3196.43420728459</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>986</v>
       </c>
       <c r="I47" t="n">
-        <v>245.536507514463</v>
+        <v>259.20562899077</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>1270.94493071978</v>
+        <v>1278.86801418303</v>
       </c>
       <c r="C48" t="n">
-        <v>729.929581146425</v>
+        <v>758.277534291337</v>
       </c>
       <c r="D48" t="n">
-        <v>559.916959765646</v>
+        <v>589.817712643209</v>
       </c>
       <c r="E48" t="n">
-        <v>2420.48063292206</v>
+        <v>2334.24624844811</v>
       </c>
       <c r="F48" t="n">
-        <v>3569.45894791138</v>
+        <v>3344.32213444927</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>1056</v>
       </c>
       <c r="I48" t="n">
-        <v>214.944930719782</v>
+        <v>222.86801418303</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>1273.56827904452</v>
+        <v>1267.25937065195</v>
       </c>
       <c r="C49" t="n">
-        <v>727.290754885693</v>
+        <v>748.424362636314</v>
       </c>
       <c r="D49" t="n">
-        <v>556.527842686833</v>
+        <v>581.149814106101</v>
       </c>
       <c r="E49" t="n">
-        <v>2444.19449932163</v>
+        <v>2325.24951000471</v>
       </c>
       <c r="F49" t="n">
-        <v>3623.5201793822</v>
+        <v>3343.26620472145</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>975</v>
       </c>
       <c r="I49" t="n">
-        <v>298.568279044525</v>
+        <v>292.259370651954</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>
